--- a/outputs/house_all_committee_matrix.xlsx
+++ b/outputs/house_all_committee_matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -968,9 +968,6 @@
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
       <c r="Y2">
         <v>1</v>
       </c>
@@ -990,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="AX2">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="BD2">
         <v>1</v>
@@ -1102,6 +1099,9 @@
       <c r="BZ3">
         <v>1</v>
       </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
       <c r="CC3">
         <v>0.5</v>
       </c>
@@ -1135,70 +1135,70 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="U4">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="X4">
+        <v>0.7</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>0.4</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>0.5</v>
+      </c>
+      <c r="BW4">
         <v>0.8</v>
       </c>
-      <c r="X4">
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AN4">
-        <v>1</v>
-      </c>
-      <c r="AP4">
-        <v>0.5</v>
-      </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AW4">
-        <v>1</v>
-      </c>
-      <c r="BA4">
-        <v>1</v>
-      </c>
-      <c r="BD4">
-        <v>1</v>
-      </c>
-      <c r="BQ4">
-        <v>1</v>
-      </c>
-      <c r="BR4">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="BS4">
-        <v>1</v>
-      </c>
-      <c r="BT4">
-        <v>0.6</v>
-      </c>
-      <c r="BW4">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="CL4">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CM4">
         <v>1</v>
@@ -1226,9 +1226,6 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
       <c r="Y5">
         <v>1</v>
       </c>
@@ -1254,7 +1251,7 @@
         <v>0.6</v>
       </c>
       <c r="AX5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AY5">
         <v>0.75</v>
@@ -1288,6 +1285,9 @@
       </c>
       <c r="CE5">
         <v>0.8</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
       </c>
       <c r="CI5">
         <v>1</v>
@@ -1325,13 +1325,13 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="X6">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
         <v>1</v>
@@ -1340,17 +1340,20 @@
         <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="AL6">
         <v>0.5</v>
       </c>
       <c r="AP6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT6">
         <v>1</v>
       </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
       <c r="AW6">
         <v>1</v>
       </c>
@@ -1370,22 +1373,25 @@
         <v>1</v>
       </c>
       <c r="BR6">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="BT6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BW6">
         <v>0.8</v>
       </c>
-      <c r="BT6">
-        <v>0.5</v>
-      </c>
-      <c r="BW6">
-        <v>0.83333333333333337</v>
-      </c>
       <c r="BZ6">
         <v>1</v>
       </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
       <c r="CD6">
         <v>1</v>
       </c>
       <c r="CL6">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CP6">
         <v>0.5</v>
@@ -1414,64 +1420,82 @@
         <v>1</v>
       </c>
       <c r="U7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="W7">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AR7">
+        <v>0.5</v>
+      </c>
+      <c r="AV7">
+        <v>0.25</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="W7">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7">
-        <v>1</v>
-      </c>
-      <c r="AO7">
-        <v>0.9</v>
-      </c>
-      <c r="AR7">
-        <v>0.5</v>
-      </c>
-      <c r="AV7">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="BB7">
-        <v>1</v>
-      </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-      <c r="BI7">
+      <c r="BZ7">
+        <v>1</v>
+      </c>
+      <c r="CA7">
+        <v>0.625</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>1</v>
+      </c>
+      <c r="CF7">
+        <v>1</v>
+      </c>
+      <c r="CG7">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="CI7">
+        <v>1</v>
+      </c>
+      <c r="CK7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="BR7">
-        <v>1</v>
-      </c>
-      <c r="BS7">
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="BZ7">
-        <v>1</v>
-      </c>
-      <c r="CA7">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="CD7">
-        <v>1</v>
-      </c>
-      <c r="CF7">
-        <v>1</v>
-      </c>
-      <c r="CG7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="CI7">
-        <v>1</v>
-      </c>
-      <c r="CK7">
-        <v>0.92307692307692313</v>
+      <c r="CP7">
+        <v>0</v>
       </c>
       <c r="CQ7">
-        <v>0.36363636363636365</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
@@ -1493,6 +1517,9 @@
       <c r="T8">
         <v>1</v>
       </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
       <c r="Z8">
         <v>0.5</v>
       </c>
@@ -1525,6 +1552,9 @@
       </c>
       <c r="BE8">
         <v>1</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
       </c>
       <c r="BS8">
         <v>1</v>
@@ -1570,6 +1600,9 @@
       <c r="S9">
         <v>1</v>
       </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
       <c r="W9">
         <v>1</v>
       </c>
@@ -1612,6 +1645,9 @@
       <c r="BJ9">
         <v>0.5</v>
       </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
       <c r="BL9">
         <v>0.5</v>
       </c>
@@ -1620,6 +1656,9 @@
       </c>
       <c r="BZ9">
         <v>1</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
       </c>
       <c r="CC9">
         <v>0.25</v>
@@ -1629,6 +1668,9 @@
       </c>
       <c r="CI9">
         <v>0.5</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.25">
@@ -1683,6 +1725,9 @@
       <c r="AU10">
         <v>0.5</v>
       </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
       <c r="BE10">
         <v>1</v>
       </c>
@@ -1710,9 +1755,15 @@
       <c r="BY10">
         <v>0.5</v>
       </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
       <c r="CA10">
         <v>1</v>
       </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
       <c r="CC10">
         <v>0.5</v>
       </c>
@@ -1727,6 +1778,9 @@
       </c>
       <c r="CP10">
         <v>1</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.25">
@@ -1757,6 +1811,9 @@
       <c r="AW11">
         <v>1</v>
       </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
       <c r="BG11">
         <v>1</v>
       </c>
@@ -1766,6 +1823,15 @@
       <c r="BY11">
         <v>0.5</v>
       </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
       <c r="CG11">
         <v>1</v>
       </c>
@@ -1783,6 +1849,9 @@
       </c>
       <c r="CP11">
         <v>1</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.25">
@@ -1811,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="AH12">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AM12">
         <v>1</v>
@@ -1820,46 +1889,46 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AU12">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="AY12">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="BD12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BF12">
+        <v>1</v>
+      </c>
+      <c r="BJ12">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="BK12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BN12">
+        <v>1</v>
+      </c>
+      <c r="BO12">
+        <v>1</v>
+      </c>
+      <c r="BP12">
         <v>0.75</v>
       </c>
-      <c r="BF12">
-        <v>1</v>
-      </c>
-      <c r="BJ12">
-        <v>0.875</v>
-      </c>
-      <c r="BK12">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="BN12">
-        <v>1</v>
-      </c>
-      <c r="BO12">
-        <v>1</v>
-      </c>
-      <c r="BP12">
-        <v>0.6</v>
-      </c>
       <c r="BW12">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="CE12">
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="CF12">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CJ12">
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CL12">
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
@@ -1888,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="AH13">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AM13">
         <v>1</v>
@@ -1897,10 +1966,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AU13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AY13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BD13">
         <v>1</v>
@@ -1909,10 +1978,10 @@
         <v>1</v>
       </c>
       <c r="BJ13">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="BK13">
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -1921,22 +1990,22 @@
         <v>1</v>
       </c>
       <c r="BP13">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="BW13">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="CE13">
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="CF13">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CJ13">
-        <v>0.7142857142857143</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="CL13">
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
@@ -1958,6 +2027,9 @@
       <c r="R14">
         <v>1</v>
       </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
       <c r="W14">
         <v>1</v>
       </c>
@@ -1969,6 +2041,9 @@
       </c>
       <c r="AF14">
         <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
@@ -2041,6 +2116,9 @@
       <c r="AB15">
         <v>1</v>
       </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
       <c r="AK15">
         <v>1</v>
       </c>
@@ -2073,6 +2151,9 @@
       </c>
       <c r="CA15">
         <v>1</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:95" x14ac:dyDescent="0.25">
@@ -2107,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="AH16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -2116,19 +2197,25 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="AU16">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
       </c>
       <c r="BD16">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="BF16">
         <v>1</v>
       </c>
       <c r="BJ16">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="BK16">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BM16">
         <v>1</v>
@@ -2139,26 +2226,29 @@
       <c r="BO16">
         <v>1</v>
       </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
       <c r="BU16">
         <v>1</v>
       </c>
       <c r="BW16">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="CE16">
         <v>1</v>
       </c>
       <c r="CF16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="CG16">
         <v>1</v>
       </c>
       <c r="CJ16">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CL16">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CN16">
         <v>1</v>
@@ -2198,6 +2288,9 @@
       <c r="AB17">
         <v>1</v>
       </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
       <c r="AE17">
         <v>1</v>
       </c>
@@ -2230,12 +2323,21 @@
       </c>
       <c r="BJ17">
         <v>0.5</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
       </c>
       <c r="BR17">
         <v>0.75</v>
       </c>
       <c r="BZ17">
         <v>1</v>
+      </c>
+      <c r="CB17">
+        <v>0</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
       </c>
       <c r="CD17">
         <v>1</v>
@@ -2284,6 +2386,9 @@
       <c r="AB18">
         <v>1</v>
       </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
       <c r="AH18">
         <v>1</v>
       </c>
@@ -2308,6 +2413,9 @@
       <c r="AW18">
         <v>1</v>
       </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
       <c r="BE18">
         <v>1</v>
       </c>
@@ -2316,6 +2424,9 @@
       </c>
       <c r="BJ18">
         <v>0.5</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
       </c>
       <c r="BM18">
         <v>0.5</v>
@@ -2338,6 +2449,9 @@
       <c r="CC18">
         <v>0.2</v>
       </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
       <c r="CF18">
         <v>0.8</v>
       </c>
@@ -2355,6 +2469,9 @@
       </c>
       <c r="CP18">
         <v>0.5</v>
+      </c>
+      <c r="CQ18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:95" x14ac:dyDescent="0.25">
@@ -2376,6 +2493,9 @@
       <c r="U19">
         <v>1</v>
       </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
       <c r="X19">
         <v>0.5</v>
       </c>
@@ -2411,6 +2531,9 @@
       </c>
       <c r="BQ19">
         <v>1</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
       </c>
       <c r="BS19">
         <v>1</v>
@@ -2430,91 +2553,91 @@
         <v>1</v>
       </c>
       <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0.75</v>
+      </c>
+      <c r="X20">
+        <v>0.8</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>0.75</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+      <c r="AU20">
+        <v>0.5</v>
+      </c>
+      <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="BA20">
+        <v>1</v>
+      </c>
+      <c r="BE20">
+        <v>1</v>
+      </c>
+      <c r="BQ20">
+        <v>0.5</v>
+      </c>
+      <c r="BR20">
         <v>0.875</v>
       </c>
-      <c r="F20">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="X20">
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="AA20">
-        <v>1</v>
-      </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
-      <c r="AH20">
-        <v>1</v>
-      </c>
-      <c r="AI20">
-        <v>1</v>
-      </c>
-      <c r="AJ20">
-        <v>1</v>
-      </c>
-      <c r="AK20">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AL20">
-        <v>1</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
-      </c>
-      <c r="AP20">
-        <v>0.5</v>
-      </c>
-      <c r="AS20">
-        <v>1</v>
-      </c>
-      <c r="AU20">
-        <v>0.5</v>
-      </c>
-      <c r="AW20">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="BA20">
-        <v>1</v>
-      </c>
-      <c r="BE20">
-        <v>1</v>
-      </c>
-      <c r="BQ20">
-        <v>0.5</v>
-      </c>
-      <c r="BR20">
-        <v>0.77777777777777779</v>
-      </c>
       <c r="BS20">
         <v>1</v>
       </c>
       <c r="BT20">
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BW20">
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="CC20">
         <v>0.5</v>
       </c>
       <c r="CL20">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CM20">
         <v>1</v>
@@ -2528,19 +2651,19 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F21">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="G21">
-        <v>0.91666666666666663</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
       <c r="T21">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -2549,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="X21">
-        <v>0.58333333333333337</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="AC21">
         <v>1</v>
@@ -2570,16 +2693,16 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AS21">
         <v>1</v>
       </c>
       <c r="AV21">
-        <v>0.375</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AW21">
-        <v>0.83333333333333337</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="BD21">
         <v>1</v>
@@ -2591,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="BR21">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="BS21">
         <v>1</v>
@@ -2600,39 +2723,45 @@
         <v>1</v>
       </c>
       <c r="BW21">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="CA21">
-        <v>0.75</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="CF21">
         <v>1</v>
       </c>
       <c r="CG21">
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
       </c>
       <c r="CK21">
         <v>1</v>
       </c>
       <c r="CL21">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CN21">
         <v>1</v>
       </c>
       <c r="CQ21">
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -2640,20 +2769,32 @@
       <c r="Z22">
         <v>0.5</v>
       </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
       <c r="AJ22">
         <v>1</v>
       </c>
-      <c r="AQ22">
-        <v>1</v>
-      </c>
-      <c r="AS22">
-        <v>1</v>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
       </c>
       <c r="AZ22">
         <v>0.5</v>
       </c>
-      <c r="BI22">
-        <v>1</v>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
       </c>
       <c r="BL22">
         <v>1</v>
@@ -2661,8 +2802,14 @@
       <c r="BR22">
         <v>1</v>
       </c>
-      <c r="CO22">
-        <v>1</v>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BY22">
+        <v>0</v>
+      </c>
+      <c r="CD22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:95" x14ac:dyDescent="0.25">
@@ -2673,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8571428571428571</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2712,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="AV23">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AW23">
         <v>1</v>
@@ -2735,8 +2882,11 @@
       <c r="BS23">
         <v>1</v>
       </c>
+      <c r="BZ23">
+        <v>0</v>
+      </c>
       <c r="CA23">
-        <v>0.55555555555555558</v>
+        <v>0.625</v>
       </c>
       <c r="CC23">
         <v>0.5</v>
@@ -2745,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="CG23">
-        <v>0.46153846153846156</v>
+        <v>0.5</v>
       </c>
       <c r="CH23">
         <v>1</v>
@@ -2757,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="CQ23">
-        <v>0.4</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="24" spans="1:95" x14ac:dyDescent="0.25">
@@ -2768,10 +2918,10 @@
         <v>0.5</v>
       </c>
       <c r="D24">
-        <v>0.72727272727272729</v>
+        <v>0.7</v>
       </c>
       <c r="F24">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="J24">
         <v>0.5</v>
@@ -2783,10 +2933,10 @@
         <v>0.5</v>
       </c>
       <c r="T24">
-        <v>0.72727272727272729</v>
+        <v>0.8</v>
       </c>
       <c r="U24">
-        <v>0.58333333333333337</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="X24">
         <v>1</v>
@@ -2801,25 +2951,28 @@
         <v>0.5</v>
       </c>
       <c r="AK24">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="AN24">
         <v>0.6</v>
       </c>
       <c r="AP24">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AS24">
+        <v>0.5</v>
+      </c>
+      <c r="AU24">
+        <v>1</v>
+      </c>
+      <c r="AW24">
         <v>0.75</v>
       </c>
-      <c r="AS24">
-        <v>0.5</v>
-      </c>
-      <c r="AU24">
-        <v>1</v>
-      </c>
-      <c r="AW24">
-        <v>0.76923076923076927</v>
-      </c>
       <c r="BD24">
         <v>0.5</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
       </c>
       <c r="BQ24">
         <v>0.7142857142857143</v>
@@ -2828,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="BT24">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="BW24">
         <v>1</v>
@@ -2875,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="AH25">
-        <v>0.77777777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="AM25">
         <v>1</v>
@@ -2884,22 +3037,25 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AU25">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
       </c>
       <c r="AY25">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="BD25">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="BF25">
         <v>1</v>
       </c>
       <c r="BJ25">
-        <v>0.88888888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="BK25">
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BM25">
         <v>1</v>
@@ -2911,28 +3067,28 @@
         <v>1</v>
       </c>
       <c r="BP25">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="BU25">
         <v>1</v>
       </c>
       <c r="BW25">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="CE25">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="CF25">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="CG25">
         <v>1</v>
       </c>
       <c r="CJ25">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="CL25">
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CN25">
         <v>1</v>
@@ -2999,6 +3155,9 @@
       <c r="AN26">
         <v>0.5</v>
       </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
       <c r="AR26">
         <v>1</v>
       </c>
@@ -3032,8 +3191,14 @@
       <c r="BR26">
         <v>0.5</v>
       </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
       <c r="BV26">
         <v>1</v>
+      </c>
+      <c r="BZ26">
+        <v>0</v>
       </c>
       <c r="CA26">
         <v>0.5</v>
@@ -3082,6 +3247,9 @@
       <c r="T27">
         <v>1</v>
       </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
       <c r="Z27">
         <v>0.5</v>
       </c>
@@ -3120,6 +3288,9 @@
       </c>
       <c r="BP27">
         <v>0.5</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
       </c>
       <c r="BS27">
         <v>1</v>
@@ -3174,6 +3345,9 @@
       <c r="AB28">
         <v>1</v>
       </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
       <c r="AP28">
         <v>0.5</v>
       </c>
@@ -3186,11 +3360,20 @@
       <c r="BJ28">
         <v>0.5</v>
       </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
       <c r="BR28">
         <v>1</v>
       </c>
       <c r="BZ28">
         <v>1</v>
+      </c>
+      <c r="CB28">
+        <v>0</v>
+      </c>
+      <c r="CC28">
+        <v>0</v>
       </c>
       <c r="CD28">
         <v>1</v>
@@ -3242,6 +3425,12 @@
       <c r="AQ29">
         <v>0.5</v>
       </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
       <c r="AY29">
         <v>0.5</v>
       </c>
@@ -3257,6 +3446,9 @@
       <c r="BJ29">
         <v>1</v>
       </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
       <c r="BN29">
         <v>0.66666666666666663</v>
       </c>
@@ -3270,7 +3462,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="CA29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="CE29">
         <v>1</v>
@@ -3279,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="CG29">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CJ29">
         <v>0.5</v>
@@ -3291,7 +3483,7 @@
         <v>0.5</v>
       </c>
       <c r="CQ29">
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:95" x14ac:dyDescent="0.25">
@@ -3304,12 +3496,24 @@
       <c r="D30">
         <v>1</v>
       </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
       <c r="I30">
         <v>0.25</v>
       </c>
       <c r="N30">
         <v>0.5</v>
       </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
       <c r="S30">
         <v>1</v>
       </c>
@@ -3325,6 +3529,9 @@
       <c r="Z30">
         <v>0.5</v>
       </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
       <c r="AD30">
         <v>1</v>
       </c>
@@ -3361,6 +3568,9 @@
       <c r="BD30">
         <v>1</v>
       </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
       <c r="BI30">
         <v>1</v>
       </c>
@@ -3390,6 +3600,9 @@
       </c>
       <c r="CH30">
         <v>1</v>
+      </c>
+      <c r="CI30">
+        <v>0</v>
       </c>
       <c r="CM30">
         <v>1</v>
@@ -3495,6 +3708,9 @@
       <c r="BW31">
         <v>0.7142857142857143</v>
       </c>
+      <c r="CB31">
+        <v>0</v>
+      </c>
       <c r="CE31">
         <v>0.83333333333333337</v>
       </c>
@@ -3524,6 +3740,9 @@
       <c r="T32">
         <v>1</v>
       </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
       <c r="AA32">
         <v>1</v>
       </c>
@@ -3550,6 +3769,9 @@
       </c>
       <c r="BH32">
         <v>1</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
       </c>
       <c r="BS32">
         <v>1</v>
@@ -3595,6 +3817,9 @@
       <c r="AW33">
         <v>1</v>
       </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
       <c r="BD33">
         <v>1</v>
       </c>
@@ -3606,6 +3831,12 @@
       </c>
       <c r="BU33">
         <v>1</v>
+      </c>
+      <c r="BZ33">
+        <v>0</v>
+      </c>
+      <c r="CA33">
+        <v>0</v>
       </c>
       <c r="CG33">
         <v>1</v>
@@ -3640,25 +3871,25 @@
         <v>1</v>
       </c>
       <c r="L34">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M34">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="P34">
+        <v>0.5</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y34">
         <v>0.75</v>
-      </c>
-      <c r="M34">
-        <v>0.75</v>
-      </c>
-      <c r="P34">
-        <v>0.6</v>
-      </c>
-      <c r="R34">
-        <v>1</v>
-      </c>
-      <c r="T34">
-        <v>1</v>
-      </c>
-      <c r="X34">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Y34">
-        <v>0.77777777777777779</v>
       </c>
       <c r="AC34">
         <v>1</v>
@@ -3682,55 +3913,55 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AU34">
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="AY34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BD34">
+        <v>0.25</v>
+      </c>
+      <c r="BE34">
+        <v>1</v>
+      </c>
+      <c r="BF34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BJ34">
+        <v>0.875</v>
+      </c>
+      <c r="BK34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BN34">
+        <v>0.75</v>
+      </c>
+      <c r="BO34">
+        <v>0.8</v>
+      </c>
+      <c r="BP34">
+        <v>1</v>
+      </c>
+      <c r="BQ34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BW34">
+        <v>0.5</v>
+      </c>
+      <c r="CC34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="CE34">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="CF34">
+        <v>1</v>
+      </c>
+      <c r="CJ34">
         <v>0.5714285714285714</v>
       </c>
-      <c r="BD34">
-        <v>0.4</v>
-      </c>
-      <c r="BE34">
-        <v>1</v>
-      </c>
-      <c r="BF34">
-        <v>0.5</v>
-      </c>
-      <c r="BJ34">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="BK34">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="BN34">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="BO34">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="BP34">
-        <v>0.8</v>
-      </c>
-      <c r="BQ34">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="BW34">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="CC34">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="CE34">
-        <v>0.75</v>
-      </c>
-      <c r="CF34">
-        <v>1</v>
-      </c>
-      <c r="CJ34">
-        <v>0.5</v>
-      </c>
       <c r="CL34">
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CN34">
         <v>1</v>
@@ -3841,6 +4072,9 @@
       <c r="H36">
         <v>1</v>
       </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
       <c r="T36">
         <v>1</v>
       </c>
@@ -3865,15 +4099,21 @@
       <c r="AQ36">
         <v>1</v>
       </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
       <c r="AS36">
         <v>1</v>
       </c>
       <c r="AX36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BA36">
         <v>1</v>
       </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
       <c r="BI36">
         <v>1</v>
       </c>
@@ -3882,6 +4122,9 @@
       </c>
       <c r="BS36">
         <v>1</v>
+      </c>
+      <c r="BY36">
+        <v>0</v>
       </c>
       <c r="CI36">
         <v>1</v>
@@ -3898,10 +4141,10 @@
         <v>36</v>
       </c>
       <c r="D37">
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F37">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3913,13 +4156,13 @@
         <v>0.5</v>
       </c>
       <c r="T37">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="U37">
         <v>1</v>
       </c>
       <c r="X37">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="Z37">
         <v>1</v>
@@ -3937,13 +4180,13 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AR37">
         <v>1</v>
       </c>
       <c r="AW37">
-        <v>0.77777777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="AZ37">
         <v>1</v>
@@ -3964,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="BR37">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="BT37">
         <v>1</v>
@@ -3973,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="BW37">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="CA37">
         <v>1</v>
@@ -3985,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="CL37">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CM37">
         <v>0.5</v>
@@ -4019,6 +4262,9 @@
       <c r="T38">
         <v>1</v>
       </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
       <c r="AA38">
         <v>1</v>
       </c>
@@ -4049,6 +4295,9 @@
       <c r="AV38">
         <v>0.66666666666666663</v>
       </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
       <c r="BA38">
         <v>1</v>
       </c>
@@ -4058,8 +4307,17 @@
       <c r="BE38">
         <v>1</v>
       </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
       <c r="BH38">
         <v>1</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
+      </c>
+      <c r="BR38">
+        <v>0</v>
       </c>
       <c r="BS38">
         <v>1</v>
@@ -4123,6 +4381,12 @@
       <c r="AR39">
         <v>1</v>
       </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>0</v>
+      </c>
       <c r="BD39">
         <v>0.75</v>
       </c>
@@ -4149,6 +4413,9 @@
       </c>
       <c r="BO39">
         <v>1</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
       </c>
       <c r="BV39">
         <v>1</v>
@@ -4203,6 +4470,9 @@
       <c r="U40">
         <v>1</v>
       </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
       <c r="X40">
         <v>0.6</v>
       </c>
@@ -4244,6 +4514,9 @@
       </c>
       <c r="BQ40">
         <v>0.6</v>
+      </c>
+      <c r="BR40">
+        <v>0</v>
       </c>
       <c r="BS40">
         <v>1</v>
@@ -4263,7 +4536,7 @@
         <v>40</v>
       </c>
       <c r="G41">
-        <v>0.9</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -4293,7 +4566,10 @@
         <v>1</v>
       </c>
       <c r="AV41">
-        <v>0.5</v>
+        <v>0.6</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
       </c>
       <c r="AZ41">
         <v>1</v>
@@ -4319,8 +4595,14 @@
       <c r="BY41">
         <v>0.5</v>
       </c>
+      <c r="BZ41">
+        <v>0</v>
+      </c>
       <c r="CA41">
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
+      </c>
+      <c r="CB41">
+        <v>0</v>
       </c>
       <c r="CD41">
         <v>1</v>
@@ -4329,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="CG41">
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="CH41">
         <v>1</v>
@@ -4347,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="CQ41">
-        <v>0.38461538461538464</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="42" spans="1:95" x14ac:dyDescent="0.25">
@@ -4355,10 +4637,10 @@
         <v>41</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F42">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I42">
         <v>0.5</v>
@@ -4373,13 +4655,16 @@
         <v>0.5</v>
       </c>
       <c r="T42">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="U42">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="X42">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
       </c>
       <c r="AB42">
         <v>0.5</v>
@@ -4388,25 +4673,28 @@
         <v>0.5</v>
       </c>
       <c r="AK42">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AP42">
         <v>1</v>
       </c>
       <c r="AW42">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="BJ42">
+        <v>0</v>
       </c>
       <c r="BK42">
         <v>0.5</v>
       </c>
       <c r="BR42">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="BT42">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="BW42">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="CC42">
         <v>0.5</v>
@@ -4434,9 +4722,6 @@
       <c r="P43">
         <v>0.33333333333333331</v>
       </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
       <c r="Y43">
         <v>0.7142857142857143</v>
       </c>
@@ -4465,7 +4750,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="AX43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AY43">
         <v>0.83333333333333337</v>
@@ -4538,6 +4823,9 @@
       <c r="O44">
         <v>1</v>
       </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
       <c r="W44">
         <v>1</v>
       </c>
@@ -4549,6 +4837,9 @@
       </c>
       <c r="AF44">
         <v>1</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
       </c>
       <c r="AK44">
         <v>1</v>
@@ -4621,9 +4912,6 @@
       <c r="U45">
         <v>1</v>
       </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
       <c r="X45">
         <v>0.5</v>
       </c>
@@ -4658,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="AX45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BA45">
         <v>1</v>
@@ -4743,6 +5031,15 @@
       <c r="BR46">
         <v>0.5</v>
       </c>
+      <c r="BZ46">
+        <v>0</v>
+      </c>
+      <c r="CA46">
+        <v>0</v>
+      </c>
+      <c r="CB46">
+        <v>0</v>
+      </c>
       <c r="CG46">
         <v>1</v>
       </c>
@@ -4773,13 +5070,13 @@
         <v>0.5</v>
       </c>
       <c r="L47">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="M47">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P47">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="R47">
         <v>0.33333333333333331</v>
@@ -4791,7 +5088,10 @@
         <v>1</v>
       </c>
       <c r="Y47">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
       </c>
       <c r="AE47">
         <v>0.5</v>
@@ -4800,11 +5100,14 @@
         <v>1</v>
       </c>
       <c r="AH47">
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="AI47">
         <v>0.5</v>
       </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
       <c r="AN47">
         <v>0.33333333333333331</v>
       </c>
@@ -4814,56 +5117,65 @@
       <c r="AU47">
         <v>1</v>
       </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
       <c r="AY47">
         <v>1</v>
       </c>
       <c r="BD47">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
       </c>
       <c r="BJ47">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="BK47">
+        <v>0.8</v>
+      </c>
+      <c r="BM47">
+        <v>1</v>
+      </c>
+      <c r="BN47">
+        <v>0.5</v>
+      </c>
+      <c r="BO47">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BP47">
+        <v>1</v>
+      </c>
+      <c r="BQ47">
+        <v>1</v>
+      </c>
+      <c r="BU47">
+        <v>1</v>
+      </c>
+      <c r="BW47">
         <v>0.83333333333333337</v>
       </c>
-      <c r="BM47">
-        <v>1</v>
-      </c>
-      <c r="BN47">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="BO47">
-        <v>0.25</v>
-      </c>
-      <c r="BP47">
-        <v>1</v>
-      </c>
-      <c r="BQ47">
-        <v>1</v>
-      </c>
-      <c r="BU47">
-        <v>1</v>
-      </c>
-      <c r="BW47">
-        <v>0.8571428571428571</v>
-      </c>
       <c r="CC47">
         <v>1</v>
       </c>
       <c r="CE47">
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CF47">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="CG47">
         <v>1</v>
       </c>
       <c r="CJ47">
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="CL47">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="CN47">
         <v>0.5</v>
@@ -4876,65 +5188,77 @@
       <c r="A48" t="s">
         <v>47</v>
       </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
       <c r="G48">
-        <v>0.22222222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="Q48">
         <v>0.33333333333333331</v>
       </c>
       <c r="U48">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="W48">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL48">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AO48">
+        <v>0.6</v>
+      </c>
+      <c r="AT48">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AV48">
+        <v>1</v>
+      </c>
+      <c r="AX48">
+        <v>0.5</v>
+      </c>
+      <c r="BB48">
+        <v>0.5</v>
+      </c>
+      <c r="BE48">
+        <v>0.5</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="BR48">
+        <v>0.5</v>
+      </c>
+      <c r="BS48">
         <v>0.375</v>
       </c>
-      <c r="W48">
-        <v>0.25</v>
-      </c>
-      <c r="AE48">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AL48">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AO48">
-        <v>0.5</v>
-      </c>
-      <c r="AT48">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AV48">
-        <v>1</v>
-      </c>
-      <c r="AX48">
-        <v>0.5</v>
-      </c>
-      <c r="BB48">
-        <v>0.5</v>
-      </c>
-      <c r="BE48">
-        <v>0.5</v>
-      </c>
-      <c r="BI48">
-        <v>0.25</v>
-      </c>
-      <c r="BR48">
-        <v>0.5</v>
-      </c>
-      <c r="BS48">
-        <v>0.33333333333333331</v>
-      </c>
       <c r="CA48">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="CB48">
         <v>1</v>
       </c>
+      <c r="CF48">
+        <v>0</v>
+      </c>
       <c r="CG48">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="CK48">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="CQ48">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="49" spans="1:95" x14ac:dyDescent="0.25">
@@ -4960,16 +5284,16 @@
         <v>1</v>
       </c>
       <c r="T49">
-        <v>0.88888888888888884</v>
+        <v>1</v>
       </c>
       <c r="U49">
-        <v>0.83333333333333337</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="W49">
         <v>1</v>
       </c>
       <c r="X49">
-        <v>0.76923076923076927</v>
+        <v>0.75</v>
       </c>
       <c r="Z49">
         <v>1</v>
@@ -4987,13 +5311,13 @@
         <v>1</v>
       </c>
       <c r="AK49">
-        <v>0.77777777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="AN49">
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AS49">
         <v>1</v>
@@ -5017,19 +5341,25 @@
         <v>1</v>
       </c>
       <c r="BR49">
-        <v>0.88888888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="BS49">
         <v>1</v>
       </c>
       <c r="BT49">
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BW49">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="BX49">
         <v>1</v>
+      </c>
+      <c r="BZ49">
+        <v>0</v>
+      </c>
+      <c r="CA49">
+        <v>0</v>
       </c>
       <c r="CC49">
         <v>0.2</v>
@@ -5050,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="CL49">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CM49">
         <v>0.2</v>
@@ -5064,47 +5394,89 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0.5</v>
       </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
       <c r="Q50">
         <v>0.5</v>
       </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
       <c r="AE50">
         <v>0.5</v>
       </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
       <c r="AJ50">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AS50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT50">
         <v>0.5</v>
       </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
       <c r="AV50">
         <v>0.5</v>
       </c>
       <c r="AX50">
         <v>1</v>
       </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>0</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
       <c r="BF50">
         <v>1</v>
       </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
       <c r="BI50">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="BM50">
+        <v>0</v>
       </c>
       <c r="BR50">
         <v>1</v>
       </c>
+      <c r="BU50">
+        <v>0</v>
+      </c>
       <c r="BY50">
         <v>1</v>
       </c>
@@ -5114,11 +5486,20 @@
       <c r="CB50">
         <v>0.5</v>
       </c>
+      <c r="CG50">
+        <v>0</v>
+      </c>
+      <c r="CH50">
+        <v>0</v>
+      </c>
       <c r="CI50">
         <v>1</v>
       </c>
+      <c r="CN50">
+        <v>0</v>
+      </c>
       <c r="CO50">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CQ50">
         <v>1</v>
@@ -5132,13 +5513,16 @@
         <v>0.75</v>
       </c>
       <c r="L51">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="M51">
-        <v>0.5</v>
+        <v>0.6</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
       </c>
       <c r="Y51">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="AC51">
         <v>0.5</v>
@@ -5147,7 +5531,10 @@
         <v>0.5</v>
       </c>
       <c r="AH51">
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
       </c>
       <c r="AQ51">
         <v>0.83333333333333337</v>
@@ -5159,31 +5546,34 @@
         <v>1</v>
       </c>
       <c r="BD51">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
       </c>
       <c r="BJ51">
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BK51">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="BN51">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="BO51">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="BP51">
         <v>1</v>
       </c>
       <c r="BW51">
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="CE51">
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="CF51">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="CJ51">
         <v>1</v>
@@ -5202,6 +5592,9 @@
       <c r="I52">
         <v>1</v>
       </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
       <c r="S52">
         <v>0.5</v>
       </c>
@@ -5240,6 +5633,9 @@
       </c>
       <c r="BR52">
         <v>0.5</v>
+      </c>
+      <c r="BS52">
+        <v>0</v>
       </c>
       <c r="BV52">
         <v>1</v>
@@ -5270,6 +5666,9 @@
       <c r="D53">
         <v>1</v>
       </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
       <c r="H53">
         <v>1</v>
       </c>
@@ -5312,6 +5711,9 @@
       <c r="BA53">
         <v>1</v>
       </c>
+      <c r="BH53">
+        <v>0</v>
+      </c>
       <c r="BL53">
         <v>1</v>
       </c>
@@ -5320,6 +5722,9 @@
       </c>
       <c r="CC53">
         <v>1</v>
+      </c>
+      <c r="CI53">
+        <v>0</v>
       </c>
       <c r="CM53">
         <v>1</v>
@@ -5359,6 +5764,9 @@
       <c r="AV54">
         <v>0.5</v>
       </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
       <c r="BB54">
         <v>1</v>
       </c>
@@ -5373,6 +5781,9 @@
       </c>
       <c r="BZ54">
         <v>1</v>
+      </c>
+      <c r="CB54">
+        <v>0</v>
       </c>
       <c r="CD54">
         <v>1</v>
@@ -5427,13 +5838,13 @@
         <v>1</v>
       </c>
       <c r="L56">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M56">
         <v>1</v>
       </c>
       <c r="P56">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -5445,7 +5856,7 @@
         <v>0.5</v>
       </c>
       <c r="Y56">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="AC56">
         <v>0.33333333333333331</v>
@@ -5460,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="AH56">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AI56">
         <v>1</v>
@@ -5478,34 +5889,40 @@
         <v>1</v>
       </c>
       <c r="AU56">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AW56">
         <v>1</v>
       </c>
+      <c r="AX56">
+        <v>0</v>
+      </c>
       <c r="AY56">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="BD56">
         <v>1</v>
       </c>
       <c r="BF56">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BJ56">
+        <v>0.5</v>
+      </c>
+      <c r="BK56">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BM56">
+        <v>1</v>
+      </c>
+      <c r="BN56">
         <v>0.75</v>
       </c>
-      <c r="BJ56">
-        <v>0.6</v>
-      </c>
-      <c r="BK56">
-        <v>0.5</v>
-      </c>
-      <c r="BM56">
-        <v>1</v>
-      </c>
-      <c r="BN56">
-        <v>0.8</v>
-      </c>
       <c r="BO56">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
       </c>
       <c r="BQ56">
         <v>1</v>
@@ -5514,22 +5931,22 @@
         <v>1</v>
       </c>
       <c r="BW56">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="CE56">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CF56">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="CG56">
         <v>1</v>
       </c>
       <c r="CJ56">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="CL56">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CN56">
         <v>1</v>
@@ -5572,6 +5989,12 @@
       <c r="T57">
         <v>1</v>
       </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
       <c r="Z57">
         <v>0.66666666666666663</v>
       </c>
@@ -5605,9 +6028,15 @@
       <c r="AT57">
         <v>1</v>
       </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
       <c r="AV57">
         <v>0.5</v>
       </c>
+      <c r="AX57">
+        <v>0</v>
+      </c>
       <c r="AZ57">
         <v>0.5</v>
       </c>
@@ -5626,6 +6055,12 @@
       <c r="BM57">
         <v>1</v>
       </c>
+      <c r="BQ57">
+        <v>0</v>
+      </c>
+      <c r="BR57">
+        <v>0</v>
+      </c>
       <c r="BS57">
         <v>1</v>
       </c>
@@ -5634,6 +6069,12 @@
       </c>
       <c r="CA57">
         <v>1</v>
+      </c>
+      <c r="CB57">
+        <v>0</v>
+      </c>
+      <c r="CC57">
+        <v>0</v>
       </c>
       <c r="CD57">
         <v>1</v>
@@ -5674,7 +6115,10 @@
         <v>1</v>
       </c>
       <c r="AH58">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
       </c>
       <c r="AM58">
         <v>1</v>
@@ -5685,20 +6129,29 @@
       <c r="AT58">
         <v>1</v>
       </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>0</v>
+      </c>
       <c r="AX58">
         <v>1</v>
       </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
       <c r="BD58">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BF58">
         <v>1</v>
       </c>
       <c r="BJ58">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BK58">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BN58">
         <v>1</v>
@@ -5706,23 +6159,29 @@
       <c r="BO58">
         <v>1</v>
       </c>
+      <c r="BP58">
+        <v>0</v>
+      </c>
       <c r="BR58">
         <v>1</v>
       </c>
       <c r="BW58">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="CB58">
+        <v>0</v>
       </c>
       <c r="CE58">
         <v>1</v>
       </c>
       <c r="CF58">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CJ58">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="CL58">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="59" spans="1:95" x14ac:dyDescent="0.25">
@@ -5753,6 +6212,9 @@
       <c r="AW59">
         <v>1</v>
       </c>
+      <c r="AX59">
+        <v>0</v>
+      </c>
       <c r="BG59">
         <v>1</v>
       </c>
@@ -5762,6 +6224,15 @@
       <c r="BY59">
         <v>0.5</v>
       </c>
+      <c r="BZ59">
+        <v>0</v>
+      </c>
+      <c r="CA59">
+        <v>0</v>
+      </c>
+      <c r="CB59">
+        <v>0</v>
+      </c>
       <c r="CG59">
         <v>1</v>
       </c>
@@ -5779,6 +6250,9 @@
       </c>
       <c r="CP59">
         <v>1</v>
+      </c>
+      <c r="CQ59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:95" x14ac:dyDescent="0.25">
@@ -5803,14 +6277,23 @@
       <c r="O60">
         <v>1</v>
       </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
       <c r="W60">
         <v>0.5</v>
       </c>
       <c r="Z60">
         <v>1</v>
       </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
       <c r="AF60">
         <v>1</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
       </c>
       <c r="AK60">
         <v>1</v>
@@ -5824,6 +6307,9 @@
       <c r="AR60">
         <v>0.8</v>
       </c>
+      <c r="BA60">
+        <v>0</v>
+      </c>
       <c r="BE60">
         <v>1</v>
       </c>
@@ -5833,6 +6319,9 @@
       <c r="BK60">
         <v>1</v>
       </c>
+      <c r="BL60">
+        <v>0</v>
+      </c>
       <c r="BM60">
         <v>1</v>
       </c>
@@ -5844,6 +6333,9 @@
       </c>
       <c r="CA60">
         <v>1</v>
+      </c>
+      <c r="CC60">
+        <v>0</v>
       </c>
       <c r="CI60">
         <v>1</v>
@@ -5860,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>0.91666666666666663</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="R61">
         <v>0.5</v>
@@ -5868,9 +6360,6 @@
       <c r="U61">
         <v>1</v>
       </c>
-      <c r="V61">
-        <v>1</v>
-      </c>
       <c r="W61">
         <v>1</v>
       </c>
@@ -5896,10 +6385,10 @@
         <v>1</v>
       </c>
       <c r="AV61">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AX61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AZ61">
         <v>1</v>
@@ -5917,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="CA61">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="CD61">
         <v>1</v>
@@ -5926,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="CG61">
-        <v>0.41666666666666669</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="CH61">
         <v>1</v>
@@ -5947,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="CQ61">
-        <v>0.41666666666666669</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="62" spans="1:95" x14ac:dyDescent="0.25">
@@ -5961,25 +6450,25 @@
         <v>0.5</v>
       </c>
       <c r="L62">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M62">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="O62">
+        <v>0.5</v>
+      </c>
+      <c r="P62">
+        <v>0.75</v>
+      </c>
+      <c r="Q62">
+        <v>0.5</v>
+      </c>
+      <c r="R62">
+        <v>0.5</v>
+      </c>
+      <c r="Y62">
         <v>0.875</v>
-      </c>
-      <c r="M62">
-        <v>0.875</v>
-      </c>
-      <c r="O62">
-        <v>0.5</v>
-      </c>
-      <c r="P62">
-        <v>0.8</v>
-      </c>
-      <c r="Q62">
-        <v>0.5</v>
-      </c>
-      <c r="R62">
-        <v>0.5</v>
-      </c>
-      <c r="Y62">
-        <v>0.88888888888888884</v>
       </c>
       <c r="Z62">
         <v>1</v>
@@ -5997,58 +6486,61 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="AH62">
-        <v>0.88888888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="AM62">
         <v>0.75</v>
       </c>
+      <c r="AP62">
+        <v>0</v>
+      </c>
       <c r="AQ62">
         <v>0.8571428571428571</v>
       </c>
       <c r="AU62">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="AY62">
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BD62">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BF62">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BJ62">
+        <v>1</v>
+      </c>
+      <c r="BK62">
+        <v>0.25</v>
+      </c>
+      <c r="BN62">
+        <v>0.875</v>
+      </c>
+      <c r="BO62">
+        <v>0.8</v>
+      </c>
+      <c r="BP62">
         <v>0.75</v>
       </c>
-      <c r="BJ62">
-        <v>1</v>
-      </c>
-      <c r="BK62">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="BN62">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="BO62">
+      <c r="BW62">
+        <v>0.625</v>
+      </c>
+      <c r="CC62">
+        <v>0.5</v>
+      </c>
+      <c r="CE62">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="CF62">
+        <v>0.75</v>
+      </c>
+      <c r="CJ62">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="CL62">
         <v>0.83333333333333337</v>
-      </c>
-      <c r="BP62">
-        <v>0.6</v>
-      </c>
-      <c r="BW62">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="CC62">
-        <v>0.5</v>
-      </c>
-      <c r="CE62">
-        <v>0.875</v>
-      </c>
-      <c r="CF62">
-        <v>0.8</v>
-      </c>
-      <c r="CJ62">
-        <v>0.625</v>
-      </c>
-      <c r="CL62">
-        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="63" spans="1:95" x14ac:dyDescent="0.25">
@@ -6058,72 +6550,87 @@
       <c r="E63">
         <v>0.25</v>
       </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
       <c r="J63">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M63">
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="O63">
         <v>0.33333333333333331</v>
       </c>
       <c r="P63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z63">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AE63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
+        <v>0.5</v>
+      </c>
+      <c r="AP63">
+        <v>0.5</v>
+      </c>
+      <c r="AQ63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AR63">
+        <v>1</v>
+      </c>
+      <c r="AU63">
+        <v>0.8</v>
+      </c>
+      <c r="AY63">
+        <v>0.6</v>
+      </c>
+      <c r="BD63">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BE63">
+        <v>1</v>
+      </c>
+      <c r="BF63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BH63">
+        <v>1</v>
+      </c>
+      <c r="BJ63">
         <v>0.25</v>
       </c>
-      <c r="Y63">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="Z63">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AD63">
-        <v>1</v>
-      </c>
-      <c r="AE63">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AH63">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AK63">
-        <v>1</v>
-      </c>
-      <c r="AM63">
-        <v>0.5</v>
-      </c>
-      <c r="AP63">
-        <v>0.5</v>
-      </c>
-      <c r="AQ63">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AR63">
-        <v>1</v>
-      </c>
-      <c r="AU63">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="AY63">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="BD63">
-        <v>0.5</v>
-      </c>
-      <c r="BE63">
-        <v>1</v>
-      </c>
-      <c r="BF63">
-        <v>0.25</v>
-      </c>
-      <c r="BH63">
-        <v>1</v>
-      </c>
-      <c r="BJ63">
-        <v>0.22222222222222221</v>
-      </c>
       <c r="BK63">
         <v>1</v>
       </c>
@@ -6131,34 +6638,37 @@
         <v>1</v>
       </c>
       <c r="BN63">
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BO63">
+        <v>0.5</v>
+      </c>
+      <c r="BP63">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BV63">
+        <v>1</v>
+      </c>
+      <c r="BW63">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="CA63">
+        <v>1</v>
+      </c>
+      <c r="CC63">
+        <v>1</v>
+      </c>
+      <c r="CE63">
+        <v>0</v>
+      </c>
+      <c r="CF63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="CJ63">
+        <v>0.6</v>
+      </c>
+      <c r="CL63">
         <v>0.4</v>
-      </c>
-      <c r="BP63">
-        <v>0.75</v>
-      </c>
-      <c r="BV63">
-        <v>1</v>
-      </c>
-      <c r="BW63">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="CA63">
-        <v>1</v>
-      </c>
-      <c r="CC63">
-        <v>1</v>
-      </c>
-      <c r="CF63">
-        <v>0.25</v>
-      </c>
-      <c r="CJ63">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="CL63">
-        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:95" x14ac:dyDescent="0.25">
@@ -6168,6 +6678,9 @@
       <c r="C64">
         <v>0.5</v>
       </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
       <c r="I64">
         <v>0.5</v>
       </c>
@@ -6183,8 +6696,14 @@
       <c r="AD64">
         <v>1</v>
       </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
       <c r="AJ64">
         <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
       </c>
       <c r="AR64">
         <v>0.25</v>
@@ -6192,11 +6711,20 @@
       <c r="BA64">
         <v>1</v>
       </c>
+      <c r="BH64">
+        <v>0</v>
+      </c>
       <c r="BL64">
         <v>1</v>
       </c>
+      <c r="BY64">
+        <v>0</v>
+      </c>
       <c r="CC64">
         <v>1</v>
+      </c>
+      <c r="CI64">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:95" x14ac:dyDescent="0.25">
@@ -6245,6 +6773,9 @@
       <c r="AU65">
         <v>1</v>
       </c>
+      <c r="AX65">
+        <v>0</v>
+      </c>
       <c r="AZ65">
         <v>1</v>
       </c>
@@ -6326,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="AH66">
-        <v>0.77777777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="AM66">
         <v>1</v>
@@ -6335,22 +6866,22 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AU66">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="AY66">
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="BD66">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="BF66">
         <v>1</v>
       </c>
       <c r="BJ66">
-        <v>0.88888888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="BK66">
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BN66">
         <v>1</v>
@@ -6359,22 +6890,22 @@
         <v>1</v>
       </c>
       <c r="BP66">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="BW66">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="CE66">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="CF66">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="CJ66">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="CL66">
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="67" spans="1:95" x14ac:dyDescent="0.25">
@@ -6403,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="AH67">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="AM67">
         <v>1</v>
@@ -6412,46 +6943,46 @@
         <v>0.5</v>
       </c>
       <c r="AU67">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AY67">
         <v>0.25</v>
       </c>
-      <c r="AY67">
-        <v>0.2</v>
-      </c>
       <c r="BD67">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BF67">
+        <v>1</v>
+      </c>
+      <c r="BJ67">
+        <v>0.8</v>
+      </c>
+      <c r="BK67">
+        <v>0.5</v>
+      </c>
+      <c r="BN67">
+        <v>1</v>
+      </c>
+      <c r="BO67">
+        <v>1</v>
+      </c>
+      <c r="BP67">
+        <v>1</v>
+      </c>
+      <c r="BW67">
+        <v>0.6</v>
+      </c>
+      <c r="CE67">
         <v>0.75</v>
       </c>
-      <c r="BF67">
-        <v>1</v>
-      </c>
-      <c r="BJ67">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="BK67">
-        <v>0.4</v>
-      </c>
-      <c r="BN67">
-        <v>1</v>
-      </c>
-      <c r="BO67">
-        <v>1</v>
-      </c>
-      <c r="BP67">
-        <v>0.5</v>
-      </c>
-      <c r="BW67">
-        <v>0.5</v>
-      </c>
-      <c r="CE67">
-        <v>0.8</v>
-      </c>
       <c r="CF67">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CJ67">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="CL67">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="68" spans="1:95" x14ac:dyDescent="0.25">
@@ -6462,19 +6993,22 @@
         <v>0.75</v>
       </c>
       <c r="L68">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="M68">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="N68">
         <v>0.5</v>
       </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
       <c r="R68">
         <v>0.5</v>
       </c>
       <c r="Y68">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AA68">
         <v>0.5</v>
@@ -6483,7 +7017,10 @@
         <v>0.75</v>
       </c>
       <c r="AH68">
-        <v>0.8</v>
+        <v>1</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
       </c>
       <c r="AQ68">
         <v>0.75</v>
@@ -6497,17 +7034,23 @@
       <c r="AY68">
         <v>1</v>
       </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
       <c r="BJ68">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="BK68">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BN68">
         <v>0.75</v>
       </c>
-      <c r="BN68">
-        <v>0.6</v>
-      </c>
       <c r="BO68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BP68">
         <v>1</v>
@@ -6516,7 +7059,7 @@
         <v>0.5</v>
       </c>
       <c r="BW68">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="BX68">
         <v>0.5</v>
@@ -6525,19 +7068,19 @@
         <v>0.5</v>
       </c>
       <c r="CE68">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="CF68">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CG68">
         <v>0.5</v>
       </c>
       <c r="CJ68">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="CL68">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="CM68">
         <v>0.5</v>
@@ -6595,6 +7138,9 @@
       <c r="BD69">
         <v>1</v>
       </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
       <c r="BQ69">
         <v>1</v>
       </c>
@@ -6613,13 +7159,16 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F70">
-        <v>0.8</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G70">
         <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0.5</v>
@@ -6627,11 +7176,14 @@
       <c r="Q70">
         <v>0.75</v>
       </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
       <c r="T70">
-        <v>0.77777777777777779</v>
+        <v>0.875</v>
       </c>
       <c r="U70">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="V70">
         <v>1</v>
@@ -6642,6 +7194,9 @@
       <c r="Z70">
         <v>0.5</v>
       </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
       <c r="AB70">
         <v>1</v>
       </c>
@@ -6649,10 +7204,16 @@
         <v>0.5</v>
       </c>
       <c r="AK70">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
       </c>
       <c r="AP70">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AT70">
         <v>0.5</v>
@@ -6661,7 +7222,7 @@
         <v>0.5</v>
       </c>
       <c r="AW70">
-        <v>0.88888888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="AX70">
         <v>1</v>
@@ -6675,14 +7236,20 @@
       <c r="BC70">
         <v>1</v>
       </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
       <c r="BF70">
         <v>1</v>
       </c>
       <c r="BR70">
         <v>1</v>
       </c>
+      <c r="BS70">
+        <v>0</v>
+      </c>
       <c r="BT70">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="BW70">
         <v>1</v>
@@ -6711,7 +7278,7 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>0.92307692307692313</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6731,9 +7298,15 @@
       <c r="U71">
         <v>1</v>
       </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
       <c r="W71">
         <v>1</v>
       </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
       <c r="AA71">
         <v>1</v>
       </c>
@@ -6762,11 +7335,14 @@
         <v>1</v>
       </c>
       <c r="AV71">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="AW71">
         <v>1</v>
       </c>
+      <c r="AZ71">
+        <v>0</v>
+      </c>
       <c r="BA71">
         <v>1</v>
       </c>
@@ -6779,6 +7355,9 @@
       <c r="BP71">
         <v>0.5</v>
       </c>
+      <c r="BR71">
+        <v>0</v>
+      </c>
       <c r="BS71">
         <v>1</v>
       </c>
@@ -6786,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="CA71">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="CC71">
         <v>0.2</v>
@@ -6795,10 +7374,10 @@
         <v>1</v>
       </c>
       <c r="CF71">
-        <v>0.91666666666666663</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="CG71">
-        <v>0.35294117647058826</v>
+        <v>0.375</v>
       </c>
       <c r="CK71">
         <v>1</v>
@@ -6807,7 +7386,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="CQ71">
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:95" x14ac:dyDescent="0.25">
@@ -6815,40 +7394,40 @@
         <v>71</v>
       </c>
       <c r="D72">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F72">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T72">
-        <v>0.5714285714285714</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U72">
         <v>1</v>
       </c>
       <c r="X72">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="AK72">
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="AW72">
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BR72">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="BT72">
         <v>1</v>
       </c>
       <c r="BW72">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="CL72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:95" x14ac:dyDescent="0.25">
@@ -6879,6 +7458,9 @@
       <c r="AU73">
         <v>1</v>
       </c>
+      <c r="AX73">
+        <v>0</v>
+      </c>
       <c r="BD73">
         <v>1</v>
       </c>
@@ -6894,6 +7476,12 @@
       <c r="BY73">
         <v>0.5</v>
       </c>
+      <c r="BZ73">
+        <v>0</v>
+      </c>
+      <c r="CB73">
+        <v>0</v>
+      </c>
       <c r="CG73">
         <v>1</v>
       </c>
@@ -6908,6 +7496,9 @@
       </c>
       <c r="CP73">
         <v>1</v>
+      </c>
+      <c r="CQ73">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:95" x14ac:dyDescent="0.25">
@@ -6986,34 +7577,34 @@
         <v>74</v>
       </c>
       <c r="D75">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="E75">
         <v>0.8</v>
       </c>
       <c r="F75">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="L75">
-        <v>0.625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M75">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P75">
         <v>0.75</v>
       </c>
-      <c r="P75">
-        <v>0.6</v>
-      </c>
       <c r="T75">
-        <v>0.66666666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="U75">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="X75">
         <v>1</v>
       </c>
       <c r="Y75">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="AC75">
         <v>0.33333333333333331</v>
@@ -7022,70 +7613,70 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AH75">
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="AK75">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AM75">
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="AQ75">
         <v>0.7142857142857143</v>
       </c>
       <c r="AU75">
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AW75">
+        <v>0.8</v>
+      </c>
+      <c r="AY75">
         <v>0.83333333333333337</v>
       </c>
-      <c r="AY75">
-        <v>0.8571428571428571</v>
-      </c>
       <c r="BD75">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BF75">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BJ75">
-        <v>0.55555555555555558</v>
+        <v>0.625</v>
       </c>
       <c r="BK75">
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BN75">
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="BO75">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BP75">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="BR75">
         <v>1</v>
       </c>
       <c r="BT75">
+        <v>0</v>
+      </c>
+      <c r="BW75">
+        <v>1</v>
+      </c>
+      <c r="CE75">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CF75">
         <v>0.25</v>
       </c>
-      <c r="BW75">
-        <v>1</v>
-      </c>
-      <c r="CE75">
-        <v>0.5</v>
-      </c>
-      <c r="CF75">
-        <v>0.2</v>
-      </c>
       <c r="CJ75">
         <v>1</v>
       </c>
       <c r="CL75">
-        <v>0.90909090909090906</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="76" spans="1:95" x14ac:dyDescent="0.25">
@@ -7139,9 +7730,15 @@
       <c r="N77">
         <v>1</v>
       </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
       <c r="AF77">
         <v>1</v>
       </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
       <c r="AL77">
         <v>1</v>
       </c>
@@ -7160,6 +7757,9 @@
       <c r="BH77">
         <v>1</v>
       </c>
+      <c r="BL77">
+        <v>0</v>
+      </c>
       <c r="BU77">
         <v>0.5</v>
       </c>
@@ -7168,6 +7768,9 @@
       </c>
       <c r="BZ77">
         <v>0.5</v>
+      </c>
+      <c r="CB77">
+        <v>0</v>
       </c>
       <c r="CH77">
         <v>0.5</v>
@@ -7198,21 +7801,51 @@
       <c r="I78">
         <v>1</v>
       </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
       <c r="Q78">
         <v>1</v>
       </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
       <c r="AB78">
         <v>1</v>
       </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AT78">
+        <v>0</v>
+      </c>
+      <c r="AW78">
+        <v>0</v>
+      </c>
       <c r="AX78">
         <v>1</v>
       </c>
       <c r="BB78">
         <v>1</v>
       </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
       <c r="BR78">
         <v>1</v>
       </c>
+      <c r="BU78">
+        <v>0</v>
+      </c>
       <c r="BY78">
         <v>0.5</v>
       </c>
@@ -7227,6 +7860,21 @@
       </c>
       <c r="CD78">
         <v>1</v>
+      </c>
+      <c r="CG78">
+        <v>0</v>
+      </c>
+      <c r="CH78">
+        <v>0</v>
+      </c>
+      <c r="CK78">
+        <v>0</v>
+      </c>
+      <c r="CO78">
+        <v>0</v>
+      </c>
+      <c r="CP78">
+        <v>0</v>
       </c>
       <c r="CQ78">
         <v>1</v>
@@ -7237,59 +7885,74 @@
         <v>78</v>
       </c>
       <c r="G79">
-        <v>0.55555555555555558</v>
+        <v>0.625</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
       <c r="O79">
         <v>1</v>
       </c>
       <c r="U79">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="W79">
+        <v>0.625</v>
+      </c>
+      <c r="Z79">
+        <v>0.5</v>
+      </c>
+      <c r="AC79">
+        <v>0.6</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
+        <v>0.8</v>
+      </c>
+      <c r="AR79">
+        <v>1</v>
+      </c>
+      <c r="AT79">
+        <v>0</v>
+      </c>
+      <c r="AV79">
+        <v>0.625</v>
+      </c>
+      <c r="AW79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>1</v>
+      </c>
+      <c r="BG79">
+        <v>0</v>
+      </c>
+      <c r="BH79">
+        <v>1</v>
+      </c>
+      <c r="BI79">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BK79">
+        <v>1</v>
+      </c>
+      <c r="BM79">
+        <v>1</v>
+      </c>
+      <c r="BS79">
         <v>0.75</v>
       </c>
-      <c r="W79">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="Z79">
-        <v>0.5</v>
-      </c>
-      <c r="AC79">
-        <v>0.5</v>
-      </c>
-      <c r="AK79">
-        <v>1</v>
-      </c>
-      <c r="AM79">
-        <v>1</v>
-      </c>
-      <c r="AO79">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AR79">
-        <v>1</v>
-      </c>
-      <c r="AV79">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="BE79">
-        <v>1</v>
-      </c>
-      <c r="BH79">
-        <v>1</v>
-      </c>
-      <c r="BI79">
-        <v>0.625</v>
-      </c>
-      <c r="BK79">
-        <v>1</v>
-      </c>
-      <c r="BM79">
-        <v>1</v>
-      </c>
-      <c r="BS79">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="BV79">
         <v>1</v>
       </c>
@@ -7300,39 +7963,102 @@
         <v>1</v>
       </c>
       <c r="CF79">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="CG79">
-        <v>0.77777777777777779</v>
+        <v>0.75</v>
+      </c>
+      <c r="CH79">
+        <v>0</v>
       </c>
       <c r="CK79">
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CQ79">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="80" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
       <c r="AL80">
         <v>0.5</v>
       </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AT80">
+        <v>0</v>
+      </c>
       <c r="AV80">
         <v>1</v>
       </c>
       <c r="AX80">
         <v>0.5</v>
       </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
       <c r="BR80">
         <v>0.33333333333333331</v>
       </c>
+      <c r="BU80">
+        <v>0</v>
+      </c>
+      <c r="BY80">
+        <v>0</v>
+      </c>
       <c r="BZ80">
         <v>0.5</v>
       </c>
       <c r="CB80">
         <v>1</v>
+      </c>
+      <c r="CD80">
+        <v>0</v>
+      </c>
+      <c r="CH80">
+        <v>0</v>
+      </c>
+      <c r="CO80">
+        <v>0</v>
       </c>
       <c r="CP80">
         <v>0.5</v>
@@ -7348,6 +8074,9 @@
       <c r="C81">
         <v>0.5</v>
       </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
       <c r="I81">
         <v>0.25</v>
       </c>
@@ -7357,6 +8086,12 @@
       <c r="N81">
         <v>0.2857142857142857</v>
       </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
       <c r="R81">
         <v>0.2</v>
       </c>
@@ -7375,6 +8110,9 @@
       <c r="AA81">
         <v>0.2</v>
       </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
       <c r="AD81">
         <v>1</v>
       </c>
@@ -7402,6 +8140,12 @@
       <c r="BA81">
         <v>1</v>
       </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
       <c r="BJ81">
         <v>0.5</v>
       </c>
@@ -7431,6 +8175,9 @@
       </c>
       <c r="CG81">
         <v>1</v>
+      </c>
+      <c r="CI81">
+        <v>0</v>
       </c>
       <c r="CM81">
         <v>1</v>
@@ -7461,9 +8208,15 @@
       <c r="Q82">
         <v>1</v>
       </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
       <c r="S82">
         <v>1</v>
       </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
       <c r="Z82">
         <v>0.5</v>
       </c>
@@ -7514,6 +8267,9 @@
       </c>
       <c r="BZ82">
         <v>1</v>
+      </c>
+      <c r="CB82">
+        <v>0</v>
       </c>
       <c r="CD82">
         <v>1</v>
@@ -7539,16 +8295,16 @@
         <v>0.8</v>
       </c>
       <c r="L83">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M83">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Y83">
         <v>0.8571428571428571</v>
-      </c>
-      <c r="M83">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="P83">
-        <v>1</v>
-      </c>
-      <c r="Y83">
-        <v>0.875</v>
       </c>
       <c r="AC83">
         <v>1</v>
@@ -7557,72 +8313,78 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AH83">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AM83">
+        <v>1</v>
+      </c>
+      <c r="AQ83">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AU83">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AY83">
+        <v>0.4</v>
+      </c>
+      <c r="BD83">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BF83">
+        <v>1</v>
+      </c>
+      <c r="BJ83">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="BK83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="BO83">
         <v>0.75</v>
       </c>
-      <c r="AM83">
-        <v>1</v>
-      </c>
-      <c r="AQ83">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AU83">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AY83">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="BD83">
-        <v>0.75</v>
-      </c>
-      <c r="BF83">
-        <v>1</v>
-      </c>
-      <c r="BJ83">
-        <v>0.875</v>
-      </c>
-      <c r="BN83">
-        <v>0.875</v>
-      </c>
-      <c r="BO83">
-        <v>0.8</v>
-      </c>
       <c r="BP83">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BW83">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="CE83">
         <v>1</v>
       </c>
       <c r="CF83">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CJ83">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="CL83">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="84" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="L84">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M84">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N84">
         <v>0.8</v>
       </c>
       <c r="P84">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R84">
         <v>0.8</v>
@@ -7634,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="Y84">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AA84">
         <v>0.8</v>
@@ -7658,76 +8420,79 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="AU84">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
+      </c>
+      <c r="AV84">
+        <v>0</v>
       </c>
       <c r="AW84">
         <v>0.8</v>
       </c>
       <c r="AY84">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="BD84">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="BF84">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BI84">
         <v>1</v>
       </c>
       <c r="BJ84">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="BK84">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BN84">
+        <v>0.5</v>
+      </c>
+      <c r="BO84">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BP84">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BS84">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="BW84">
         <v>0.25</v>
-      </c>
-      <c r="BN84">
-        <v>0.6</v>
-      </c>
-      <c r="BO84">
-        <v>0.75</v>
-      </c>
-      <c r="BP84">
-        <v>0.25</v>
-      </c>
-      <c r="BS84">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="BW84">
-        <v>0.2</v>
       </c>
       <c r="BX84">
         <v>0.8</v>
       </c>
       <c r="CA84">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="CC84">
         <v>0.4</v>
       </c>
       <c r="CE84">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CF84">
         <v>1</v>
       </c>
       <c r="CG84">
-        <v>0.25</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="CJ84">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CK84">
         <v>1</v>
       </c>
       <c r="CL84">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CM84">
         <v>0.4</v>
       </c>
       <c r="CQ84">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="85" spans="1:95" x14ac:dyDescent="0.25">
@@ -7738,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0.33333333333333331</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -7753,10 +8518,10 @@
         <v>0.2</v>
       </c>
       <c r="U85">
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
       </c>
       <c r="W85">
-        <v>0.46153846153846156</v>
+        <v>0.5</v>
       </c>
       <c r="Y85">
         <v>1</v>
@@ -7768,13 +8533,13 @@
         <v>0.2</v>
       </c>
       <c r="AC85">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AG85">
         <v>1</v>
       </c>
       <c r="AO85">
-        <v>0.44444444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="AT85">
         <v>1</v>
@@ -7783,11 +8548,14 @@
         <v>1</v>
       </c>
       <c r="AV85">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AW85">
         <v>0.5</v>
       </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
       <c r="BD85">
         <v>1</v>
       </c>
@@ -7795,7 +8563,7 @@
         <v>1</v>
       </c>
       <c r="BI85">
-        <v>0.41666666666666669</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="BM85">
         <v>1</v>
@@ -7804,7 +8572,7 @@
         <v>0.5</v>
       </c>
       <c r="BS85">
-        <v>0.35294117647058826</v>
+        <v>0.375</v>
       </c>
       <c r="BU85">
         <v>1</v>
@@ -7812,14 +8580,17 @@
       <c r="BX85">
         <v>0.2</v>
       </c>
+      <c r="BZ85">
+        <v>0</v>
+      </c>
       <c r="CA85">
-        <v>0.77777777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="CC85">
         <v>1</v>
       </c>
       <c r="CF85">
-        <v>0.25</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="CG85">
         <v>1</v>
@@ -7831,7 +8602,7 @@
         <v>1</v>
       </c>
       <c r="CK85">
-        <v>0.46153846153846156</v>
+        <v>0.5</v>
       </c>
       <c r="CM85">
         <v>1</v>
@@ -7843,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="CQ85">
-        <v>0.7</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="86" spans="1:95" x14ac:dyDescent="0.25">
@@ -7883,6 +8654,9 @@
       <c r="AW86">
         <v>1</v>
       </c>
+      <c r="AX86">
+        <v>0</v>
+      </c>
       <c r="AZ86">
         <v>1</v>
       </c>
@@ -7903,6 +8677,15 @@
       </c>
       <c r="BY86">
         <v>0.5</v>
+      </c>
+      <c r="BZ86">
+        <v>0</v>
+      </c>
+      <c r="CA86">
+        <v>0</v>
+      </c>
+      <c r="CB86">
+        <v>0</v>
       </c>
       <c r="CD86">
         <v>1</v>
@@ -7960,6 +8743,9 @@
       <c r="Z87">
         <v>1</v>
       </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
       <c r="AG87">
         <v>1</v>
       </c>
@@ -7984,6 +8770,9 @@
       <c r="AX87">
         <v>1</v>
       </c>
+      <c r="BA87">
+        <v>0</v>
+      </c>
       <c r="BG87">
         <v>1</v>
       </c>
@@ -7992,6 +8781,12 @@
       </c>
       <c r="BI87">
         <v>1</v>
+      </c>
+      <c r="BL87">
+        <v>0</v>
+      </c>
+      <c r="CC87">
+        <v>0</v>
       </c>
       <c r="CG87">
         <v>1</v>
@@ -8011,25 +8806,25 @@
         <v>0.8</v>
       </c>
       <c r="L88">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M88">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="P88">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Y88">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AC88">
+        <v>0.5</v>
+      </c>
+      <c r="AE88">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH88">
         <v>0.5714285714285714</v>
-      </c>
-      <c r="M88">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="P88">
-        <v>0.5</v>
-      </c>
-      <c r="Y88">
-        <v>0.625</v>
-      </c>
-      <c r="AC88">
-        <v>0.5</v>
-      </c>
-      <c r="AE88">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AH88">
-        <v>0.5</v>
       </c>
       <c r="AM88">
         <v>0.66666666666666663</v>
@@ -8038,40 +8833,40 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AU88">
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AY88">
         <v>1</v>
       </c>
       <c r="BD88">
+        <v>1</v>
+      </c>
+      <c r="BF88">
+        <v>0.5</v>
+      </c>
+      <c r="BJ88">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BK88">
+        <v>0.6</v>
+      </c>
+      <c r="BN88">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="BO88">
+        <v>0.5</v>
+      </c>
+      <c r="BP88">
         <v>0.75</v>
       </c>
-      <c r="BF88">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="BJ88">
-        <v>0.625</v>
-      </c>
-      <c r="BK88">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="BN88">
-        <v>0.625</v>
-      </c>
-      <c r="BO88">
-        <v>0.4</v>
-      </c>
-      <c r="BP88">
-        <v>0.8</v>
-      </c>
       <c r="BW88">
         <v>1</v>
       </c>
       <c r="CE88">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="CF88">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CJ88">
         <v>1</v>
@@ -8085,7 +8880,7 @@
         <v>88</v>
       </c>
       <c r="G89">
-        <v>0.92307692307692313</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -8112,7 +8907,7 @@
         <v>1</v>
       </c>
       <c r="AV89">
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="AW89">
         <v>1</v>
@@ -8126,14 +8921,17 @@
       <c r="BS89">
         <v>1</v>
       </c>
+      <c r="BZ89">
+        <v>0</v>
+      </c>
       <c r="CA89">
-        <v>0.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CF89">
         <v>1</v>
       </c>
       <c r="CG89">
-        <v>0.46153846153846156</v>
+        <v>0.5</v>
       </c>
       <c r="CH89">
         <v>1</v>
@@ -8142,7 +8940,7 @@
         <v>1</v>
       </c>
       <c r="CQ89">
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:95" x14ac:dyDescent="0.25">
@@ -8150,100 +8948,100 @@
         <v>89</v>
       </c>
       <c r="D90">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L90">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M90">
+        <v>0.8</v>
+      </c>
+      <c r="P90">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T90">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U90">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="X90">
+        <v>1</v>
+      </c>
+      <c r="Y90">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC90">
+        <v>0.5</v>
+      </c>
+      <c r="AE90">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH90">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AK90">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AM90">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AP90">
+        <v>1</v>
+      </c>
+      <c r="AQ90">
+        <v>1</v>
+      </c>
+      <c r="AU90">
+        <v>0.8</v>
+      </c>
+      <c r="AW90">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AY90">
+        <v>1</v>
+      </c>
+      <c r="BD90">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BF90">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BJ90">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="BK90">
+        <v>0.4</v>
+      </c>
+      <c r="BN90">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BO90">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BP90">
         <v>0.75</v>
       </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>0.75</v>
-      </c>
-      <c r="L90">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="M90">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P90">
-        <v>0.25</v>
-      </c>
-      <c r="T90">
-        <v>0.5</v>
-      </c>
-      <c r="U90">
-        <v>0.75</v>
-      </c>
-      <c r="X90">
-        <v>1</v>
-      </c>
-      <c r="Y90">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="AC90">
-        <v>0.5</v>
-      </c>
-      <c r="AE90">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AH90">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="AK90">
-        <v>0.75</v>
-      </c>
-      <c r="AM90">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AP90">
-        <v>1</v>
-      </c>
-      <c r="AQ90">
-        <v>1</v>
-      </c>
-      <c r="AU90">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="AW90">
-        <v>0.75</v>
-      </c>
-      <c r="AY90">
-        <v>1</v>
-      </c>
-      <c r="BD90">
-        <v>0.5</v>
-      </c>
-      <c r="BF90">
-        <v>0.25</v>
-      </c>
-      <c r="BJ90">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="BK90">
-        <v>0.5</v>
-      </c>
-      <c r="BN90">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="BO90">
-        <v>0.25</v>
-      </c>
-      <c r="BP90">
-        <v>0.8</v>
-      </c>
       <c r="BR90">
         <v>1</v>
       </c>
       <c r="BT90">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BW90">
-        <v>0.90909090909090906</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="CE90">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="CF90">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CJ90">
         <v>1</v>
@@ -8411,6 +9209,9 @@
       <c r="AW92">
         <v>1</v>
       </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
       <c r="BD92">
         <v>1</v>
       </c>
@@ -8458,9 +9259,6 @@
       <c r="P93">
         <v>1</v>
       </c>
-      <c r="V93">
-        <v>1</v>
-      </c>
       <c r="Y93">
         <v>1</v>
       </c>
@@ -8483,7 +9281,7 @@
         <v>1</v>
       </c>
       <c r="AX93">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BD93">
         <v>1</v>
@@ -8503,6 +9301,12 @@
       <c r="BY93">
         <v>0.5</v>
       </c>
+      <c r="BZ93">
+        <v>0</v>
+      </c>
+      <c r="CB93">
+        <v>0</v>
+      </c>
       <c r="CG93">
         <v>1</v>
       </c>
@@ -8520,6 +9324,9 @@
       </c>
       <c r="CP93">
         <v>1</v>
+      </c>
+      <c r="CQ93">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:95" x14ac:dyDescent="0.25">
@@ -8532,6 +9339,12 @@
       <c r="F94">
         <v>0.5</v>
       </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
       <c r="J94">
         <v>1</v>
       </c>
@@ -8585,6 +9398,9 @@
       </c>
       <c r="BY94">
         <v>1</v>
+      </c>
+      <c r="BZ94">
+        <v>0</v>
       </c>
       <c r="CB94">
         <v>0.5</v>
@@ -8613,43 +9429,58 @@
         <v>94</v>
       </c>
       <c r="G95">
-        <v>0.36363636363636365</v>
+        <v>0.4</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
       </c>
       <c r="U95">
+        <v>0.5</v>
+      </c>
+      <c r="W95">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AC95">
+        <v>0.2</v>
+      </c>
+      <c r="AD95">
+        <v>1</v>
+      </c>
+      <c r="AK95">
+        <v>0.5</v>
+      </c>
+      <c r="AO95">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV95">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AX95">
+        <v>1</v>
+      </c>
+      <c r="AZ95">
+        <v>1</v>
+      </c>
+      <c r="BG95">
+        <v>0</v>
+      </c>
+      <c r="BI95">
         <v>0.45454545454545453</v>
       </c>
-      <c r="W95">
-        <v>0.4</v>
-      </c>
-      <c r="AC95">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AD95">
-        <v>1</v>
-      </c>
-      <c r="AK95">
-        <v>0.5</v>
-      </c>
-      <c r="AO95">
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="AV95">
-        <v>0.875</v>
-      </c>
-      <c r="AX95">
-        <v>1</v>
-      </c>
-      <c r="AZ95">
-        <v>1</v>
-      </c>
-      <c r="BI95">
-        <v>0.41666666666666669</v>
-      </c>
       <c r="BM95">
         <v>0.5</v>
       </c>
       <c r="BS95">
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
+      </c>
+      <c r="BU95">
+        <v>0</v>
       </c>
       <c r="BV95">
         <v>0.5</v>
@@ -8661,7 +9492,7 @@
         <v>1</v>
       </c>
       <c r="CA95">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="CB95">
         <v>1</v>
@@ -8670,19 +9501,22 @@
         <v>1</v>
       </c>
       <c r="CF95">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="CG95">
-        <v>0.7</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CH95">
         <v>0.25</v>
       </c>
       <c r="CK95">
-        <v>0.45454545454545453</v>
+        <v>0.5</v>
       </c>
       <c r="CM95">
         <v>1</v>
+      </c>
+      <c r="CO95">
+        <v>0</v>
       </c>
       <c r="CP95">
         <v>0.33333333333333331</v>

--- a/outputs/house_all_committee_matrix.xlsx
+++ b/outputs/house_all_committee_matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/outputs/house_all_committee_matrix.xlsx
+++ b/outputs/house_all_committee_matrix.xlsx
@@ -1030,9 +1030,6 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -1042,14 +1039,11 @@
       <c r="R3">
         <v>1</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>1</v>
@@ -1070,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="AU3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BA3">
         <v>0.5</v>
@@ -1091,7 +1085,7 @@
         <v>0.5</v>
       </c>
       <c r="BQ3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BR3">
         <v>1</v>
@@ -1103,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CD3">
         <v>1</v>
@@ -1138,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="U4">
-        <v>0.77777777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X4">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -1159,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AL4">
         <v>1</v>
@@ -1168,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="AP4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AS4">
         <v>1</v>
@@ -1186,19 +1180,19 @@
         <v>1</v>
       </c>
       <c r="BR4">
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BS4">
         <v>1</v>
       </c>
       <c r="BT4">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BW4">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CL4">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="CM4">
         <v>1</v>
@@ -1328,10 +1322,10 @@
         <v>1</v>
       </c>
       <c r="U6">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X6">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AB6">
         <v>1</v>
@@ -1340,13 +1334,13 @@
         <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AL6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -1358,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="AX6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BB6">
         <v>1</v>
@@ -1369,17 +1363,14 @@
       <c r="BE6">
         <v>1</v>
       </c>
-      <c r="BF6">
-        <v>1</v>
-      </c>
       <c r="BR6">
-        <v>0.77777777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BT6">
         <v>0.33333333333333331</v>
       </c>
       <c r="BW6">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BZ6">
         <v>1</v>
@@ -1391,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="CL6">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="CP6">
         <v>0.5</v>
@@ -1420,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>0.90909090909090906</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="W7">
-        <v>0.84615384615384615</v>
+        <v>0.8</v>
       </c>
       <c r="AB7">
         <v>1</v>
@@ -1435,67 +1426,67 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>0.88888888888888884</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0.5</v>
       </c>
       <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>0.875</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
+        <v>0.875</v>
+      </c>
+      <c r="BZ7">
+        <v>1</v>
+      </c>
+      <c r="CA7">
+        <v>0.5</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>1</v>
+      </c>
+      <c r="CF7">
+        <v>1</v>
+      </c>
+      <c r="CG7">
         <v>0.25</v>
       </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>1</v>
-      </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-      <c r="BI7">
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BR7">
-        <v>1</v>
-      </c>
-      <c r="BS7">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="BZ7">
-        <v>1</v>
-      </c>
-      <c r="CA7">
-        <v>0.625</v>
-      </c>
-      <c r="CB7">
-        <v>0</v>
-      </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7">
-        <v>1</v>
-      </c>
-      <c r="CF7">
-        <v>1</v>
-      </c>
-      <c r="CG7">
-        <v>0.36363636363636365</v>
-      </c>
       <c r="CI7">
         <v>1</v>
       </c>
       <c r="CK7">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="CP7">
         <v>0</v>
       </c>
       <c r="CQ7">
-        <v>0.4</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
@@ -1677,9 +1668,6 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="J10">
         <v>1</v>
       </c>
@@ -1696,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="X10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -1704,9 +1692,6 @@
       <c r="AH10">
         <v>1</v>
       </c>
-      <c r="AI10">
-        <v>1</v>
-      </c>
       <c r="AK10">
         <v>1</v>
       </c>
@@ -1723,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="AU10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -1744,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="BQ10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BU10">
         <v>1</v>
@@ -1765,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="CC10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CH10">
         <v>1</v>
@@ -2076,19 +2061,19 @@
         <v>1</v>
       </c>
       <c r="CC14">
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CF14">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="CG14">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="CI14">
         <v>0.5</v>
       </c>
       <c r="CM14">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.25">
@@ -2295,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="AL17">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AP17">
         <v>0.5</v>
@@ -2304,10 +2289,10 @@
         <v>1</v>
       </c>
       <c r="AV17">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AX17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BB17">
         <v>1</v>
@@ -2318,9 +2303,6 @@
       <c r="BE17">
         <v>1</v>
       </c>
-      <c r="BF17">
-        <v>1</v>
-      </c>
       <c r="BJ17">
         <v>0.5</v>
       </c>
@@ -2328,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="BR17">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BZ17">
         <v>1</v>
@@ -2375,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="X18">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0.5</v>
@@ -2408,7 +2390,7 @@
         <v>0.5</v>
       </c>
       <c r="AU18">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AW18">
         <v>1</v>
@@ -2435,7 +2417,7 @@
         <v>0.5</v>
       </c>
       <c r="BQ18">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="BS18">
         <v>1</v>
@@ -2447,22 +2429,22 @@
         <v>1</v>
       </c>
       <c r="CC18">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="CD18">
         <v>0</v>
       </c>
       <c r="CF18">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="CG18">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="CH18">
         <v>0.5</v>
       </c>
       <c r="CM18">
-        <v>0.14285714285714285</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="CN18">
         <v>1</v>
@@ -2497,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z19">
         <v>0.5</v>
@@ -2549,9 +2531,6 @@
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
       <c r="D20">
         <v>1</v>
       </c>
@@ -2571,10 +2550,10 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0.75</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X20">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AA20">
         <v>1</v>
@@ -2592,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="AK20">
-        <v>0.75</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AL20">
         <v>1</v>
@@ -2601,13 +2580,13 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="AS20">
         <v>1</v>
       </c>
       <c r="AU20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AW20">
         <v>1</v>
@@ -2619,25 +2598,25 @@
         <v>1</v>
       </c>
       <c r="BQ20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BR20">
-        <v>0.875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BS20">
         <v>1</v>
       </c>
       <c r="BT20">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BW20">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CC20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CL20">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="CM20">
         <v>1</v>
@@ -2651,19 +2630,19 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0.77777777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F21">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G21">
-        <v>0.90909090909090906</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="S21">
         <v>1</v>
       </c>
       <c r="T21">
-        <v>0.75</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -2672,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="X21">
-        <v>0.54545454545454541</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AC21">
         <v>1</v>
@@ -2693,58 +2672,58 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>0.8571428571428571</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AS21">
         <v>1</v>
       </c>
       <c r="AV21">
+        <v>0.2</v>
+      </c>
+      <c r="AW21">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BD21">
+        <v>1</v>
+      </c>
+      <c r="BI21">
+        <v>1</v>
+      </c>
+      <c r="BQ21">
+        <v>1</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>1</v>
+      </c>
+      <c r="BT21">
+        <v>1</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="CA21">
+        <v>0.8</v>
+      </c>
+      <c r="CF21">
+        <v>1</v>
+      </c>
+      <c r="CG21">
         <v>0.42857142857142855</v>
       </c>
-      <c r="AW21">
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="BD21">
-        <v>1</v>
-      </c>
-      <c r="BI21">
-        <v>1</v>
-      </c>
-      <c r="BQ21">
-        <v>1</v>
-      </c>
-      <c r="BR21">
-        <v>0.625</v>
-      </c>
-      <c r="BS21">
-        <v>1</v>
-      </c>
-      <c r="BT21">
-        <v>1</v>
-      </c>
-      <c r="BW21">
-        <v>0.4</v>
-      </c>
-      <c r="CA21">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="CF21">
-        <v>1</v>
-      </c>
-      <c r="CG21">
-        <v>0.5</v>
-      </c>
       <c r="CK21">
         <v>1</v>
       </c>
       <c r="CL21">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="CN21">
         <v>1</v>
       </c>
       <c r="CQ21">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="22" spans="1:95" x14ac:dyDescent="0.25">
@@ -2820,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.84615384615384615</v>
+        <v>0.8</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2859,55 +2838,55 @@
         <v>1</v>
       </c>
       <c r="AV23">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="BA23">
+        <v>0.5</v>
+      </c>
+      <c r="BG23">
+        <v>1</v>
+      </c>
+      <c r="BH23">
+        <v>0.5</v>
+      </c>
+      <c r="BI23">
+        <v>1</v>
+      </c>
+      <c r="BL23">
+        <v>0.5</v>
+      </c>
+      <c r="BS23">
+        <v>1</v>
+      </c>
+      <c r="BZ23">
+        <v>0</v>
+      </c>
+      <c r="CA23">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="CC23">
+        <v>0.5</v>
+      </c>
+      <c r="CF23">
+        <v>1</v>
+      </c>
+      <c r="CG23">
+        <v>0.5</v>
+      </c>
+      <c r="CH23">
+        <v>1</v>
+      </c>
+      <c r="CI23">
+        <v>0.5</v>
+      </c>
+      <c r="CK23">
+        <v>1</v>
+      </c>
+      <c r="CQ23">
         <v>0.2857142857142857</v>
-      </c>
-      <c r="AW23">
-        <v>1</v>
-      </c>
-      <c r="BA23">
-        <v>0.5</v>
-      </c>
-      <c r="BG23">
-        <v>1</v>
-      </c>
-      <c r="BH23">
-        <v>0.5</v>
-      </c>
-      <c r="BI23">
-        <v>1</v>
-      </c>
-      <c r="BL23">
-        <v>0.5</v>
-      </c>
-      <c r="BS23">
-        <v>1</v>
-      </c>
-      <c r="BZ23">
-        <v>0</v>
-      </c>
-      <c r="CA23">
-        <v>0.625</v>
-      </c>
-      <c r="CC23">
-        <v>0.5</v>
-      </c>
-      <c r="CF23">
-        <v>1</v>
-      </c>
-      <c r="CG23">
-        <v>0.5</v>
-      </c>
-      <c r="CH23">
-        <v>1</v>
-      </c>
-      <c r="CI23">
-        <v>0.5</v>
-      </c>
-      <c r="CK23">
-        <v>1</v>
-      </c>
-      <c r="CQ23">
-        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="24" spans="1:95" x14ac:dyDescent="0.25">
@@ -2915,73 +2894,73 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F24">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="T24">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="U24">
-        <v>0.54545454545454541</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
       <c r="AD24">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AH24">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AK24">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="AN24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AP24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AS24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AU24">
+        <v>1</v>
+      </c>
+      <c r="AW24">
+        <v>0.5</v>
+      </c>
+      <c r="BD24">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BQ24">
         <v>0.6</v>
       </c>
-      <c r="AP24">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="AS24">
-        <v>0.5</v>
-      </c>
-      <c r="AU24">
-        <v>1</v>
-      </c>
-      <c r="AW24">
-        <v>0.75</v>
-      </c>
-      <c r="BD24">
-        <v>0.5</v>
-      </c>
-      <c r="BE24">
-        <v>0</v>
-      </c>
-      <c r="BQ24">
-        <v>0.7142857142857143</v>
-      </c>
       <c r="BR24">
         <v>1</v>
       </c>
       <c r="BT24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BW24">
         <v>1</v>
@@ -2993,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="CN24">
-        <v>0.42857142857142855</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:95" x14ac:dyDescent="0.25">
@@ -3299,19 +3278,19 @@
         <v>1</v>
       </c>
       <c r="CC27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="CD27">
         <v>1</v>
       </c>
       <c r="CF27">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="CG27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="CM27">
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:95" x14ac:dyDescent="0.25">
@@ -3471,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="CG29">
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CJ29">
         <v>0.5</v>
@@ -3524,7 +3503,7 @@
         <v>0.5</v>
       </c>
       <c r="X30">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z30">
         <v>0.5</v>
@@ -3652,7 +3631,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AL31">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AM31">
         <v>1</v>
@@ -3667,10 +3646,10 @@
         <v>0.5</v>
       </c>
       <c r="AV31">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AX31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AY31">
         <v>0.5</v>
@@ -3703,7 +3682,7 @@
         <v>0.75</v>
       </c>
       <c r="BR31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BW31">
         <v>0.7142857142857143</v>
@@ -3886,7 +3865,7 @@
         <v>1</v>
       </c>
       <c r="X34">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>0.75</v>
@@ -3913,7 +3892,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="AU34">
-        <v>0.55555555555555558</v>
+        <v>0.5</v>
       </c>
       <c r="AY34">
         <v>0.66666666666666663</v>
@@ -3943,13 +3922,13 @@
         <v>1</v>
       </c>
       <c r="BQ34">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="BW34">
         <v>0.5</v>
       </c>
       <c r="CC34">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="CE34">
         <v>0.7142857142857143</v>
@@ -3980,9 +3959,6 @@
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
       <c r="R35">
         <v>1</v>
       </c>
@@ -3996,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="X35">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AA35">
         <v>1</v>
@@ -4026,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="AU35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AW35">
         <v>1</v>
@@ -4041,13 +4017,13 @@
         <v>1</v>
       </c>
       <c r="BQ35">
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="BS35">
         <v>1</v>
       </c>
       <c r="CC35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CM35">
         <v>1</v>
@@ -4141,10 +4117,10 @@
         <v>36</v>
       </c>
       <c r="D37">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F37">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -4156,13 +4132,13 @@
         <v>0.5</v>
       </c>
       <c r="T37">
-        <v>0.75</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U37">
         <v>1</v>
       </c>
       <c r="X37">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>1</v>
@@ -4180,13 +4156,13 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>0.8571428571428571</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AR37">
         <v>1</v>
       </c>
       <c r="AW37">
-        <v>0.75</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AZ37">
         <v>1</v>
@@ -4207,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="BR37">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="BT37">
         <v>1</v>
@@ -4216,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="BW37">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CA37">
         <v>1</v>
@@ -4228,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="CL37">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="CM37">
         <v>0.5</v>
@@ -4248,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4257,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -4269,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="AE38">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -4290,10 +4266,10 @@
         <v>1</v>
       </c>
       <c r="AT38">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AV38">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AX38">
         <v>0</v>
@@ -4307,9 +4283,6 @@
       <c r="BE38">
         <v>1</v>
       </c>
-      <c r="BF38">
-        <v>0</v>
-      </c>
       <c r="BH38">
         <v>1</v>
       </c>
@@ -4326,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="CB38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CM38">
         <v>1</v>
@@ -4474,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="X40">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z40">
         <v>0.5</v>
@@ -4498,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="AU40">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AW40">
         <v>1</v>
@@ -4513,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="BQ40">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BR40">
         <v>0</v>
@@ -4522,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="CC40">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="CD40">
         <v>1</v>
@@ -4536,7 +4509,7 @@
         <v>40</v>
       </c>
       <c r="G41">
-        <v>0.88888888888888884</v>
+        <v>0.8</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -4566,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="AV41">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AX41">
         <v>0</v>
@@ -4599,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="CA41">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CB41">
         <v>0</v>
@@ -4611,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="CG41">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="CH41">
         <v>1</v>
@@ -4629,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="CQ41">
-        <v>0.41666666666666669</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="42" spans="1:95" x14ac:dyDescent="0.25">
@@ -4637,10 +4610,10 @@
         <v>41</v>
       </c>
       <c r="D42">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0.5</v>
@@ -4655,13 +4628,13 @@
         <v>0.5</v>
       </c>
       <c r="T42">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>0.8571428571428571</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X42">
-        <v>0.7142857142857143</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4673,13 +4646,13 @@
         <v>0.5</v>
       </c>
       <c r="AK42">
-        <v>0.8571428571428571</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AP42">
         <v>1</v>
       </c>
       <c r="AW42">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="BJ42">
         <v>0</v>
@@ -4688,13 +4661,13 @@
         <v>0.5</v>
       </c>
       <c r="BR42">
-        <v>0.7142857142857143</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BT42">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="BW42">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CC42">
         <v>0.5</v>
@@ -4913,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="X45">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AA45">
         <v>1</v>
@@ -5002,19 +4975,19 @@
         <v>1</v>
       </c>
       <c r="AL46">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="AT46">
         <v>1</v>
       </c>
       <c r="AV46">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AW46">
         <v>1</v>
       </c>
       <c r="AX46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BB46">
         <v>1</v>
@@ -5022,14 +4995,11 @@
       <c r="BE46">
         <v>1</v>
       </c>
-      <c r="BF46">
-        <v>1</v>
-      </c>
       <c r="BG46">
         <v>1</v>
       </c>
       <c r="BR46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BZ46">
         <v>0</v>
@@ -5061,13 +5031,13 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0.6</v>
       </c>
       <c r="J47">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <v>0.5</v>
@@ -5079,10 +5049,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="R47">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X47">
         <v>1</v>
@@ -5100,16 +5070,16 @@
         <v>1</v>
       </c>
       <c r="AH47">
-        <v>0.55555555555555558</v>
+        <v>0.5</v>
       </c>
       <c r="AI47">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AM47">
         <v>0</v>
       </c>
       <c r="AN47">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AQ47">
         <v>0.66666666666666663</v>
@@ -5178,7 +5148,7 @@
         <v>0.8</v>
       </c>
       <c r="CN47">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CO47">
         <v>1</v>
@@ -5192,37 +5162,37 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="U48">
-        <v>0.42857142857142855</v>
+        <v>0.2</v>
       </c>
       <c r="W48">
-        <v>0.2857142857142857</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AC48">
         <v>0</v>
       </c>
       <c r="AE48">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AL48">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="AO48">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AT48">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AV48">
         <v>1</v>
       </c>
       <c r="AX48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BB48">
         <v>0.5</v>
@@ -5230,20 +5200,17 @@
       <c r="BE48">
         <v>0.5</v>
       </c>
-      <c r="BF48">
-        <v>0</v>
-      </c>
       <c r="BI48">
-        <v>0.2857142857142857</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BR48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BS48">
-        <v>0.375</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="CA48">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="CB48">
         <v>1</v>
@@ -5252,13 +5219,13 @@
         <v>0</v>
       </c>
       <c r="CG48">
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CK48">
-        <v>0.375</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="CQ48">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="49" spans="1:95" x14ac:dyDescent="0.25">
@@ -5287,89 +5254,89 @@
         <v>1</v>
       </c>
       <c r="U49">
-        <v>0.81818181818181823</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W49">
         <v>1</v>
       </c>
       <c r="X49">
+        <v>0.5</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AG49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>1</v>
+      </c>
+      <c r="AK49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>1</v>
+      </c>
+      <c r="AT49">
+        <v>1</v>
+      </c>
+      <c r="AW49">
+        <v>1</v>
+      </c>
+      <c r="BD49">
+        <v>1</v>
+      </c>
+      <c r="BG49">
+        <v>1</v>
+      </c>
+      <c r="BP49">
+        <v>0.5</v>
+      </c>
+      <c r="BQ49">
+        <v>1</v>
+      </c>
+      <c r="BR49">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BS49">
+        <v>1</v>
+      </c>
+      <c r="BT49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BW49">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BX49">
+        <v>1</v>
+      </c>
+      <c r="BZ49">
+        <v>0</v>
+      </c>
+      <c r="CA49">
+        <v>0</v>
+      </c>
+      <c r="CC49">
+        <v>0.25</v>
+      </c>
+      <c r="CF49">
         <v>0.75</v>
       </c>
-      <c r="Z49">
-        <v>1</v>
-      </c>
-      <c r="AA49">
-        <v>1</v>
-      </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
-      <c r="AG49">
-        <v>1</v>
-      </c>
-      <c r="AI49">
-        <v>1</v>
-      </c>
-      <c r="AK49">
-        <v>0.75</v>
-      </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AP49">
+      <c r="CG49">
         <v>0.5714285714285714</v>
       </c>
-      <c r="AS49">
-        <v>1</v>
-      </c>
-      <c r="AT49">
-        <v>1</v>
-      </c>
-      <c r="AW49">
-        <v>1</v>
-      </c>
-      <c r="BD49">
-        <v>1</v>
-      </c>
-      <c r="BG49">
-        <v>1</v>
-      </c>
-      <c r="BP49">
-        <v>0.5</v>
-      </c>
-      <c r="BQ49">
-        <v>1</v>
-      </c>
-      <c r="BR49">
-        <v>0.875</v>
-      </c>
-      <c r="BS49">
-        <v>1</v>
-      </c>
-      <c r="BT49">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="BW49">
-        <v>0.8</v>
-      </c>
-      <c r="BX49">
-        <v>1</v>
-      </c>
-      <c r="BZ49">
-        <v>0</v>
-      </c>
-      <c r="CA49">
-        <v>0</v>
-      </c>
-      <c r="CC49">
-        <v>0.2</v>
-      </c>
-      <c r="CF49">
-        <v>0.8</v>
-      </c>
-      <c r="CG49">
-        <v>0.5</v>
-      </c>
       <c r="CH49">
         <v>1</v>
       </c>
@@ -5380,10 +5347,10 @@
         <v>1</v>
       </c>
       <c r="CL49">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="CM49">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="CN49">
         <v>1</v>
@@ -5400,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -5412,13 +5379,13 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
       </c>
       <c r="AE50">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG50">
         <v>0</v>
@@ -5439,13 +5406,13 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AU50">
         <v>0</v>
       </c>
       <c r="AV50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AX50">
         <v>1</v>
@@ -5459,9 +5426,6 @@
       <c r="BE50">
         <v>0</v>
       </c>
-      <c r="BF50">
-        <v>1</v>
-      </c>
       <c r="BG50">
         <v>0</v>
       </c>
@@ -5484,7 +5448,7 @@
         <v>1</v>
       </c>
       <c r="CB50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="CG50">
         <v>0</v>
@@ -5853,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="X56">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="Y56">
         <v>0.8</v>
@@ -6090,9 +6054,6 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
       <c r="L58">
         <v>1</v>
       </c>
@@ -6102,9 +6063,6 @@
       <c r="P58">
         <v>1</v>
       </c>
-      <c r="Q58">
-        <v>1</v>
-      </c>
       <c r="Y58">
         <v>1</v>
       </c>
@@ -6117,27 +6075,15 @@
       <c r="AH58">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AL58">
-        <v>0</v>
-      </c>
       <c r="AM58">
         <v>1</v>
       </c>
       <c r="AQ58">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AT58">
-        <v>1</v>
-      </c>
       <c r="AU58">
         <v>0</v>
       </c>
-      <c r="AV58">
-        <v>0</v>
-      </c>
-      <c r="AX58">
-        <v>1</v>
-      </c>
       <c r="AY58">
         <v>0</v>
       </c>
@@ -6162,14 +6108,8 @@
       <c r="BP58">
         <v>0</v>
       </c>
-      <c r="BR58">
-        <v>1</v>
-      </c>
       <c r="BW58">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="CB58">
-        <v>0</v>
       </c>
       <c r="CE58">
         <v>1</v>
@@ -6352,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>0.90909090909090906</v>
+        <v>0.875</v>
       </c>
       <c r="R61">
         <v>0.5</v>
@@ -6385,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="AV61">
-        <v>0.2857142857142857</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AX61">
         <v>1</v>
@@ -6406,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="CA61">
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CD61">
         <v>1</v>
@@ -6415,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="CG61">
-        <v>0.45454545454545453</v>
+        <v>0.375</v>
       </c>
       <c r="CH61">
         <v>1</v>
@@ -6436,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="CQ61">
-        <v>0.45454545454545453</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="62" spans="1:95" x14ac:dyDescent="0.25">
@@ -7091,64 +7031,64 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="J69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U69">
         <v>1</v>
       </c>
       <c r="X69">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="AD69">
         <v>1</v>
       </c>
       <c r="AH69">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AI69">
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="AN69">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AS69">
+        <v>1</v>
+      </c>
+      <c r="AU69">
+        <v>1</v>
+      </c>
+      <c r="AW69">
+        <v>1</v>
+      </c>
+      <c r="BD69">
+        <v>1</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BQ69">
+        <v>1</v>
+      </c>
+      <c r="CC69">
+        <v>1</v>
+      </c>
+      <c r="CN69">
         <v>0.6</v>
-      </c>
-      <c r="AS69">
-        <v>1</v>
-      </c>
-      <c r="AU69">
-        <v>1</v>
-      </c>
-      <c r="AW69">
-        <v>1</v>
-      </c>
-      <c r="BD69">
-        <v>1</v>
-      </c>
-      <c r="BE69">
-        <v>0</v>
-      </c>
-      <c r="BQ69">
-        <v>1</v>
-      </c>
-      <c r="CC69">
-        <v>1</v>
-      </c>
-      <c r="CN69">
-        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="70" spans="1:95" x14ac:dyDescent="0.25">
@@ -7159,10 +7099,10 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F70">
-        <v>0.77777777777777779</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -7174,16 +7114,16 @@
         <v>0.5</v>
       </c>
       <c r="Q70">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
       <c r="T70">
-        <v>0.875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U70">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="V70">
         <v>1</v>
@@ -7201,10 +7141,10 @@
         <v>1</v>
       </c>
       <c r="AE70">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AK70">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="AL70">
         <v>0</v>
@@ -7213,16 +7153,16 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>0.7142857142857143</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AT70">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AV70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AW70">
-        <v>0.875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AX70">
         <v>1</v>
@@ -7239,9 +7179,6 @@
       <c r="BE70">
         <v>0</v>
       </c>
-      <c r="BF70">
-        <v>1</v>
-      </c>
       <c r="BR70">
         <v>1</v>
       </c>
@@ -7249,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="BT70">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BW70">
         <v>1</v>
@@ -7258,7 +7195,7 @@
         <v>1</v>
       </c>
       <c r="CB70">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="CD70">
         <v>0.5</v>
@@ -7278,7 +7215,7 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -7335,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="AV71">
-        <v>0.375</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AW71">
         <v>1</v>
@@ -7365,28 +7302,28 @@
         <v>1</v>
       </c>
       <c r="CA71">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="CC71">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="CD71">
         <v>1</v>
       </c>
       <c r="CF71">
-        <v>0.90909090909090906</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="CG71">
-        <v>0.375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CK71">
         <v>1</v>
       </c>
       <c r="CM71">
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="CQ71">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="72" spans="1:95" x14ac:dyDescent="0.25">
@@ -7394,31 +7331,31 @@
         <v>71</v>
       </c>
       <c r="D72">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F72">
         <v>0.33333333333333331</v>
       </c>
       <c r="T72">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U72">
         <v>1</v>
       </c>
       <c r="X72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AK72">
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AW72">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BR72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BT72">
         <v>1</v>
@@ -7577,13 +7514,13 @@
         <v>74</v>
       </c>
       <c r="D75">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E75">
         <v>0.8</v>
       </c>
       <c r="F75">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L75">
         <v>0.7142857142857143</v>
@@ -7595,10 +7532,10 @@
         <v>0.75</v>
       </c>
       <c r="T75">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U75">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="X75">
         <v>1</v>
@@ -7616,13 +7553,13 @@
         <v>0.5</v>
       </c>
       <c r="AK75">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AM75">
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>0.6</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AQ75">
         <v>0.7142857142857143</v>
@@ -7631,7 +7568,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AW75">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AY75">
         <v>0.83333333333333337</v>
@@ -7676,7 +7613,7 @@
         <v>1</v>
       </c>
       <c r="CL75">
-        <v>0.88888888888888884</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="76" spans="1:95" x14ac:dyDescent="0.25">
@@ -7705,16 +7642,16 @@
         <v>1</v>
       </c>
       <c r="CC76">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="CF76">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="CG76">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="CM76">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="77" spans="1:95" x14ac:dyDescent="0.25">
@@ -7885,7 +7822,7 @@
         <v>78</v>
       </c>
       <c r="G79">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -7897,10 +7834,10 @@
         <v>1</v>
       </c>
       <c r="U79">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="W79">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Z79">
         <v>0.5</v>
@@ -7918,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="AO79">
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AR79">
         <v>1</v>
@@ -7927,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AV79">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AW79">
         <v>0</v>
@@ -7942,40 +7879,40 @@
         <v>1</v>
       </c>
       <c r="BI79">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BK79">
+        <v>1</v>
+      </c>
+      <c r="BM79">
+        <v>1</v>
+      </c>
+      <c r="BS79">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="BV79">
+        <v>1</v>
+      </c>
+      <c r="BZ79">
+        <v>1</v>
+      </c>
+      <c r="CA79">
+        <v>1</v>
+      </c>
+      <c r="CF79">
+        <v>0.5</v>
+      </c>
+      <c r="CG79">
         <v>0.7142857142857143</v>
       </c>
-      <c r="BK79">
-        <v>1</v>
-      </c>
-      <c r="BM79">
-        <v>1</v>
-      </c>
-      <c r="BS79">
-        <v>0.75</v>
-      </c>
-      <c r="BV79">
-        <v>1</v>
-      </c>
-      <c r="BZ79">
-        <v>1</v>
-      </c>
-      <c r="CA79">
-        <v>1</v>
-      </c>
-      <c r="CF79">
-        <v>0.5</v>
-      </c>
-      <c r="CG79">
-        <v>0.75</v>
-      </c>
       <c r="CH79">
         <v>0</v>
       </c>
       <c r="CK79">
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="CQ79">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="80" spans="1:95" x14ac:dyDescent="0.25">
@@ -8010,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="AL80">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO80">
         <v>0</v>
@@ -8022,7 +7959,7 @@
         <v>1</v>
       </c>
       <c r="AX80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="BB80">
         <v>0</v>
@@ -8030,14 +7967,11 @@
       <c r="BE80">
         <v>0</v>
       </c>
-      <c r="BF80">
-        <v>0</v>
-      </c>
       <c r="BG80">
         <v>0</v>
       </c>
       <c r="BR80">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="BU80">
         <v>0</v>
@@ -8072,7 +8006,7 @@
         <v>80</v>
       </c>
       <c r="C81">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -8081,10 +8015,10 @@
         <v>0.25</v>
       </c>
       <c r="J81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -8093,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="R81">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="T81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W81">
         <v>0.5</v>
@@ -8108,7 +8042,7 @@
         <v>0.5</v>
       </c>
       <c r="AA81">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AB81">
         <v>0</v>
@@ -8117,13 +8051,13 @@
         <v>1</v>
       </c>
       <c r="AH81">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AI81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AN81">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AP81">
         <v>0.5</v>
@@ -8135,7 +8069,7 @@
         <v>1</v>
       </c>
       <c r="AW81">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="BA81">
         <v>1</v>
@@ -8162,16 +8096,16 @@
         <v>1</v>
       </c>
       <c r="BS81">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="BX81">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="CC81">
         <v>1</v>
       </c>
       <c r="CF81">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="CG81">
         <v>1</v>
@@ -8183,7 +8117,7 @@
         <v>1</v>
       </c>
       <c r="CN81">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:95" x14ac:dyDescent="0.25">
@@ -8381,13 +8315,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="N84">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="P84">
         <v>0.5</v>
       </c>
       <c r="R84">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="U84">
         <v>1</v>
@@ -8399,7 +8333,7 @@
         <v>0.5</v>
       </c>
       <c r="AA84">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC84">
         <v>1</v>
@@ -8426,7 +8360,7 @@
         <v>0</v>
       </c>
       <c r="AW84">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AY84">
         <v>0.5</v>
@@ -8456,19 +8390,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="BS84">
-        <v>0.90909090909090906</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="BW84">
         <v>0.25</v>
       </c>
       <c r="BX84">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="CA84">
         <v>0.5</v>
       </c>
       <c r="CC84">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="CE84">
         <v>0.66666666666666663</v>
@@ -8477,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="CG84">
-        <v>0.27272727272727271</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CJ84">
         <v>0.33333333333333331</v>
@@ -8489,7 +8423,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="CM84">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="CQ84">
         <v>0.25</v>
@@ -8503,22 +8437,22 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0.36363636363636365</v>
+        <v>0.25</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="N85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="P85">
         <v>1</v>
       </c>
       <c r="R85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="U85">
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="W85">
         <v>0.5</v>
@@ -8530,16 +8464,16 @@
         <v>1</v>
       </c>
       <c r="AA85">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AC85">
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AG85">
         <v>1</v>
       </c>
       <c r="AO85">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT85">
         <v>1</v>
@@ -8548,49 +8482,49 @@
         <v>1</v>
       </c>
       <c r="AV85">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AW85">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AX85">
+        <v>0</v>
+      </c>
+      <c r="BD85">
+        <v>1</v>
+      </c>
+      <c r="BG85">
+        <v>1</v>
+      </c>
+      <c r="BI85">
+        <v>0.375</v>
+      </c>
+      <c r="BM85">
+        <v>1</v>
+      </c>
+      <c r="BP85">
+        <v>0.5</v>
+      </c>
+      <c r="BS85">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="BU85">
+        <v>1</v>
+      </c>
+      <c r="BX85">
+        <v>0.25</v>
+      </c>
+      <c r="BZ85">
+        <v>0</v>
+      </c>
+      <c r="CA85">
         <v>0.7142857142857143</v>
       </c>
-      <c r="AW85">
-        <v>0.5</v>
-      </c>
-      <c r="AX85">
-        <v>0</v>
-      </c>
-      <c r="BD85">
-        <v>1</v>
-      </c>
-      <c r="BG85">
-        <v>1</v>
-      </c>
-      <c r="BI85">
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="BM85">
-        <v>1</v>
-      </c>
-      <c r="BP85">
-        <v>0.5</v>
-      </c>
-      <c r="BS85">
-        <v>0.375</v>
-      </c>
-      <c r="BU85">
-        <v>1</v>
-      </c>
-      <c r="BX85">
-        <v>0.2</v>
-      </c>
-      <c r="BZ85">
-        <v>0</v>
-      </c>
-      <c r="CA85">
-        <v>0.75</v>
-      </c>
       <c r="CC85">
         <v>1</v>
       </c>
       <c r="CF85">
-        <v>0.27272727272727271</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CG85">
         <v>1</v>
@@ -8602,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="CK85">
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="CM85">
         <v>1</v>
@@ -8614,7 +8548,7 @@
         <v>1</v>
       </c>
       <c r="CQ85">
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="86" spans="1:95" x14ac:dyDescent="0.25">
@@ -8880,7 +8814,7 @@
         <v>88</v>
       </c>
       <c r="G89">
-        <v>0.91666666666666663</v>
+        <v>0.875</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -8907,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="AV89">
-        <v>0.375</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AW89">
         <v>1</v>
@@ -8925,13 +8859,13 @@
         <v>0</v>
       </c>
       <c r="CA89">
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="CF89">
         <v>1</v>
       </c>
       <c r="CG89">
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="CH89">
         <v>1</v>
@@ -8940,7 +8874,7 @@
         <v>1</v>
       </c>
       <c r="CQ89">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="90" spans="1:95" x14ac:dyDescent="0.25">
@@ -8948,13 +8882,13 @@
         <v>89</v>
       </c>
       <c r="D90">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="L90">
         <v>0.66666666666666663</v>
@@ -8966,10 +8900,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T90">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="U90">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="X90">
         <v>1</v>
@@ -8987,7 +8921,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="AK90">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="AM90">
         <v>0.33333333333333331</v>
@@ -9002,7 +8936,7 @@
         <v>0.8</v>
       </c>
       <c r="AW90">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="AY90">
         <v>1</v>
@@ -9035,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="BW90">
-        <v>0.88888888888888884</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="CE90">
         <v>0.6</v>
@@ -9061,16 +8995,16 @@
         <v>1</v>
       </c>
       <c r="N91">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>0.14285714285714285</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="T91">
         <v>1</v>
       </c>
       <c r="AA91">
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="AD91">
         <v>1</v>
@@ -9097,7 +9031,7 @@
         <v>1</v>
       </c>
       <c r="AW91">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AZ91">
         <v>1</v>
@@ -9115,13 +9049,13 @@
         <v>0.5</v>
       </c>
       <c r="BS91">
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="BV91">
         <v>0.5</v>
       </c>
       <c r="BX91">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="CC91">
         <v>1</v>
@@ -9130,7 +9064,7 @@
         <v>1</v>
       </c>
       <c r="CF91">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="CG91">
         <v>1</v>
@@ -9180,7 +9114,7 @@
         <v>1</v>
       </c>
       <c r="X92">
-        <v>0.42857142857142855</v>
+        <v>0.2</v>
       </c>
       <c r="Y92">
         <v>1</v>
@@ -9204,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="AU92">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AW92">
         <v>1</v>
@@ -9222,13 +9156,13 @@
         <v>1</v>
       </c>
       <c r="BQ92">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="BU92">
         <v>1</v>
       </c>
       <c r="CC92">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="CG92">
         <v>1</v>
@@ -9429,7 +9363,7 @@
         <v>94</v>
       </c>
       <c r="G95">
-        <v>0.4</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -9441,10 +9375,10 @@
         <v>0</v>
       </c>
       <c r="U95">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="W95">
-        <v>0.44444444444444442</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AC95">
         <v>0.2</v>
@@ -9456,10 +9390,10 @@
         <v>0.5</v>
       </c>
       <c r="AO95">
-        <v>0.41666666666666669</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="AV95">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="AX95">
         <v>1</v>
@@ -9471,13 +9405,13 @@
         <v>0</v>
       </c>
       <c r="BI95">
-        <v>0.45454545454545453</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="BM95">
         <v>0.5</v>
       </c>
       <c r="BS95">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="BU95">
         <v>0</v>
@@ -9492,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="CA95">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="CB95">
         <v>1</v>
@@ -9504,13 +9438,13 @@
         <v>0.25</v>
       </c>
       <c r="CG95">
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="CH95">
         <v>0.25</v>
       </c>
       <c r="CK95">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="CM95">
         <v>1</v>
